--- a/insert (Ali).xlsx
+++ b/insert (Ali).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="941" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="941"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="291">
   <si>
     <t>Nombre</t>
   </si>
@@ -201,145 +201,10 @@
     <t>Cantante</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diego</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Flórez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan </t>
-  </si>
-  <si>
-    <t>Salom</t>
-  </si>
-  <si>
-    <t>http://es.wikipedia.org/wiki/Juan_Diego_Fl%C3%B3rez</t>
-  </si>
-  <si>
-    <t>peru</t>
-  </si>
-  <si>
-    <t>Rolando</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Villazón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emilio </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mauleón </t>
-  </si>
-  <si>
-    <t>mexico</t>
-  </si>
-  <si>
-    <t>http://es.wikipedia.org/wiki/Rolando_Villaz%C3%B3n</t>
-  </si>
-  <si>
-    <t>Ramón</t>
-  </si>
-  <si>
-    <t>Vargas</t>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org/wiki/Ram%C3%B3n_Vargas</t>
-  </si>
-  <si>
     <t>fallecimiento</t>
   </si>
   <si>
-    <t>Salvatore</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Licitra</t>
-  </si>
-  <si>
-    <t>http://es.wikipedia.org/wiki/Salvatore_Licitra</t>
-  </si>
-  <si>
-    <t>Siciliana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna </t>
-  </si>
-  <si>
-    <t>Alàs i Jové</t>
-  </si>
-  <si>
     <t>f</t>
-  </si>
-  <si>
-    <t>españa barcelona</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mezzosoprano lírica,</t>
-  </si>
-  <si>
-    <t>http://www.annaalasijove.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kate </t>
-  </si>
-  <si>
-    <t>Aldrich</t>
-  </si>
-  <si>
-    <t>america</t>
-  </si>
-  <si>
-    <t>mezzo soprano.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcelo </t>
-  </si>
-  <si>
-    <t>Raúl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Álvarez</t>
-  </si>
-  <si>
-    <t>argentina</t>
-  </si>
-  <si>
-    <t>tenor</t>
-  </si>
-  <si>
-    <t>http://www.marceloalvarez.com/index.php?option=com_content&amp;view=article&amp;id=1&amp;Itemid=26&amp;lang=es</t>
-  </si>
-  <si>
-    <t>Terfel</t>
-  </si>
-  <si>
-    <t>Bryn</t>
-  </si>
-  <si>
-    <t>http://es.wikipedia.org/wiki/Bryn_Terfel</t>
-  </si>
-  <si>
-    <t>londres</t>
-  </si>
-  <si>
-    <t> bajo-barítono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">René </t>
-  </si>
-  <si>
-    <t>Pape</t>
-  </si>
-  <si>
-    <t>alemania</t>
-  </si>
-  <si>
-    <t>http://es.wikipedia.org/wiki/Ren%C3%A9_Pape</t>
-  </si>
-  <si>
-    <t>tenor ligero</t>
-  </si>
-  <si>
-    <t>tenor lirico</t>
   </si>
   <si>
     <t>Director_escenografia</t>
@@ -1453,10 +1318,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,10 +1337,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="130">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1937,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1953,21 +1818,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18.75">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="L2" s="24" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="L2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="2" t="s">
@@ -2009,10 +1874,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2023,10 +1888,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:14">
@@ -2034,10 +1899,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="2:14" s="3" customFormat="1">
@@ -2045,10 +1910,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="E7" s="5"/>
       <c r="L7" s="8"/>
@@ -2058,26 +1923,26 @@
     </row>
     <row r="10" spans="2:14">
       <c r="C10" s="15" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="2:14">
       <c r="C12" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="C14" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="E14" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2102,46 +1967,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="3" spans="1:17" ht="18.75">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:17">
       <c r="B4" s="7"/>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="1" t="s">
@@ -2195,10 +2060,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2212,29 +2077,29 @@
       <c r="M6" s="5">
         <v>24564</v>
       </c>
-      <c r="N6" s="30" t="s">
-        <v>289</v>
+      <c r="N6" s="24" t="s">
+        <v>244</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3">
         <v>85</v>
       </c>
       <c r="Q6" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="E7" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="L7" t="s">
         <v>27</v>
@@ -2242,43 +2107,43 @@
       <c r="M7" s="4">
         <v>20306</v>
       </c>
-      <c r="N7" s="31" t="s">
-        <v>330</v>
+      <c r="N7" s="25" t="s">
+        <v>285</v>
       </c>
       <c r="P7">
         <v>23</v>
       </c>
       <c r="Q7" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="E8" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="L8" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="M8" s="4">
         <v>27499</v>
       </c>
-      <c r="N8" s="31" t="s">
-        <v>335</v>
+      <c r="N8" s="25" t="s">
+        <v>290</v>
       </c>
       <c r="P8">
         <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2319,40 +2184,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" ht="18.75">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="7"/>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="1" t="s">
@@ -2409,25 +2274,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
         <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="N6" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="Q6">
         <v>85</v>
@@ -2438,28 +2303,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s">
         <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>12</v>
@@ -2470,22 +2335,22 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="L8" t="s">
         <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="N8" s="4">
         <v>7161</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>85</v>
@@ -2496,31 +2361,31 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
         <v>27</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="N9" s="4">
         <v>393</v>
       </c>
       <c r="O9" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="Q9">
         <v>59</v>
@@ -2560,13 +2425,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="6" t="s">
@@ -2598,10 +2463,10 @@
     </row>
     <row r="5" spans="2:6">
       <c r="C5" s="20" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="E5" s="20">
         <v>8</v>
@@ -2609,10 +2474,10 @@
     </row>
     <row r="6" spans="2:6">
       <c r="C6" s="20" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="E6" s="20">
         <v>8</v>
@@ -2620,10 +2485,10 @@
     </row>
     <row r="7" spans="2:6">
       <c r="C7" s="20" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="E7" s="20">
         <v>8</v>
@@ -2631,7 +2496,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="C8" s="20" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>42</v>
@@ -2642,10 +2507,10 @@
     </row>
     <row r="9" spans="2:6">
       <c r="C9" s="20" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="E9" s="20">
         <v>8</v>
@@ -2653,7 +2518,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="C10" s="20" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>49</v>
@@ -2664,7 +2529,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>43</v>
@@ -2675,7 +2540,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>49</v>
@@ -2686,7 +2551,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="C13" s="20" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>45</v>
@@ -2697,7 +2562,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="C14" s="20" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>49</v>
@@ -2708,7 +2573,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="C15" s="20" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>44</v>
@@ -2730,7 +2595,7 @@
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="20" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>41</v>
@@ -2741,10 +2606,10 @@
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="20" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="E18" s="20">
         <v>8</v>
@@ -2752,7 +2617,7 @@
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="20" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>49</v>
@@ -2763,10 +2628,10 @@
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="20" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="E20" s="20">
         <v>8</v>
@@ -2774,7 +2639,7 @@
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="20" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>39</v>
@@ -2785,10 +2650,10 @@
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="20" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="E22" s="20">
         <v>8</v>
@@ -2796,7 +2661,7 @@
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="20" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>43</v>
@@ -2807,7 +2672,7 @@
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="20" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>42</v>
@@ -2818,7 +2683,7 @@
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="20" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>49</v>
@@ -2829,7 +2694,7 @@
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="20" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>43</v>
@@ -2840,7 +2705,7 @@
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="20" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>42</v>
@@ -2851,7 +2716,7 @@
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="20" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>39</v>
@@ -2862,10 +2727,10 @@
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="20" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="E29" s="20">
         <v>8</v>
@@ -2873,7 +2738,7 @@
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="22" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>49</v>
@@ -2884,7 +2749,7 @@
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="20" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>49</v>
@@ -2895,7 +2760,7 @@
     </row>
     <row r="32" spans="3:5">
       <c r="C32" s="20" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>42</v>
@@ -2906,7 +2771,7 @@
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="20" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>42</v>
@@ -2917,7 +2782,7 @@
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="20" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>49</v>
@@ -2939,7 +2804,7 @@
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="20" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>49</v>
@@ -2950,10 +2815,10 @@
     </row>
     <row r="37" spans="3:5">
       <c r="C37" s="20" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="E37" s="20">
         <v>5</v>
@@ -2972,10 +2837,10 @@
     </row>
     <row r="39" spans="3:5">
       <c r="C39" s="20" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="E39" s="20">
         <v>5</v>
@@ -2983,7 +2848,7 @@
     </row>
     <row r="40" spans="3:5">
       <c r="C40" s="20" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>49</v>
@@ -2994,7 +2859,7 @@
     </row>
     <row r="41" spans="3:5">
       <c r="C41" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>49</v>
@@ -3005,7 +2870,7 @@
     </row>
     <row r="42" spans="3:5">
       <c r="C42" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>39</v>
@@ -3016,7 +2881,7 @@
     </row>
     <row r="43" spans="3:5">
       <c r="C43" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>49</v>
@@ -3027,7 +2892,7 @@
     </row>
     <row r="44" spans="3:5">
       <c r="C44" s="20" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>49</v>
@@ -3038,7 +2903,7 @@
     </row>
     <row r="45" spans="3:5">
       <c r="C45" s="20" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>49</v>
@@ -3049,10 +2914,10 @@
     </row>
     <row r="46" spans="3:5">
       <c r="C46" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="E46" s="20">
         <v>5</v>
@@ -3071,7 +2936,7 @@
     </row>
     <row r="48" spans="3:5">
       <c r="C48" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>44</v>
@@ -3082,7 +2947,7 @@
     </row>
     <row r="49" spans="3:5">
       <c r="C49" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>44</v>
@@ -3093,7 +2958,7 @@
     </row>
     <row r="50" spans="3:5">
       <c r="C50" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>43</v>
@@ -3104,7 +2969,7 @@
     </row>
     <row r="51" spans="3:5">
       <c r="C51" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>44</v>
@@ -3115,7 +2980,7 @@
     </row>
     <row r="52" spans="3:5">
       <c r="C52" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>45</v>
@@ -3126,7 +2991,7 @@
     </row>
     <row r="53" spans="3:5">
       <c r="C53" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>45</v>
@@ -3137,7 +3002,7 @@
     </row>
     <row r="54" spans="3:5">
       <c r="C54" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>46</v>
@@ -3148,7 +3013,7 @@
     </row>
     <row r="55" spans="3:5">
       <c r="C55" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>46</v>
@@ -3159,7 +3024,7 @@
     </row>
     <row r="56" spans="3:5">
       <c r="C56" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>43</v>
@@ -3181,7 +3046,7 @@
     </row>
     <row r="58" spans="3:5">
       <c r="C58" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>43</v>
@@ -3192,7 +3057,7 @@
     </row>
     <row r="59" spans="3:5">
       <c r="C59" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
         <v>49</v>
@@ -3203,7 +3068,7 @@
     </row>
     <row r="60" spans="3:5">
       <c r="C60" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>43</v>
@@ -3214,7 +3079,7 @@
     </row>
     <row r="61" spans="3:5">
       <c r="C61" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>44</v>
@@ -3225,7 +3090,7 @@
     </row>
     <row r="62" spans="3:5">
       <c r="C62" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>43</v>
@@ -3236,7 +3101,7 @@
     </row>
     <row r="63" spans="3:5">
       <c r="C63" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>49</v>
@@ -3247,7 +3112,7 @@
     </row>
     <row r="64" spans="3:5">
       <c r="C64" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>49</v>
@@ -3258,7 +3123,7 @@
     </row>
     <row r="65" spans="3:5">
       <c r="C65" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>43</v>
@@ -3269,7 +3134,7 @@
     </row>
     <row r="66" spans="3:5">
       <c r="C66" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>39</v>
@@ -3280,7 +3145,7 @@
     </row>
     <row r="67" spans="3:5">
       <c r="C67" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>49</v>
@@ -3291,7 +3156,7 @@
     </row>
     <row r="68" spans="3:5">
       <c r="C68" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>43</v>
@@ -3302,7 +3167,7 @@
     </row>
     <row r="69" spans="3:5">
       <c r="C69" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>49</v>
@@ -3313,7 +3178,7 @@
     </row>
     <row r="70" spans="3:5">
       <c r="C70" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>43</v>
@@ -3324,7 +3189,7 @@
     </row>
     <row r="71" spans="3:5">
       <c r="C71" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="D71" t="s">
         <v>45</v>
@@ -3335,7 +3200,7 @@
     </row>
     <row r="72" spans="3:5">
       <c r="C72" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="D72" t="s">
         <v>49</v>
@@ -3346,7 +3211,7 @@
     </row>
     <row r="73" spans="3:5">
       <c r="C73" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="D73" t="s">
         <v>44</v>
@@ -3357,7 +3222,7 @@
     </row>
     <row r="74" spans="3:5">
       <c r="C74" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="D74" t="s">
         <v>44</v>
@@ -3368,7 +3233,7 @@
     </row>
     <row r="75" spans="3:5">
       <c r="C75" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="D75" t="s">
         <v>39</v>
@@ -3379,7 +3244,7 @@
     </row>
     <row r="76" spans="3:5">
       <c r="C76" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="D76" t="s">
         <v>49</v>
@@ -3390,7 +3255,7 @@
     </row>
     <row r="77" spans="3:5">
       <c r="C77" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="D77" t="s">
         <v>43</v>
@@ -3401,7 +3266,7 @@
     </row>
     <row r="78" spans="3:5">
       <c r="C78" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="D78" t="s">
         <v>44</v>
@@ -3412,7 +3277,7 @@
     </row>
     <row r="79" spans="3:5">
       <c r="C79" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="D79" t="s">
         <v>46</v>
@@ -3434,10 +3299,10 @@
     </row>
     <row r="81" spans="3:5">
       <c r="C81" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="D81" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="E81" s="20">
         <v>7</v>
@@ -3445,7 +3310,7 @@
     </row>
     <row r="82" spans="3:5">
       <c r="C82" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="D82" t="s">
         <v>44</v>
@@ -3456,7 +3321,7 @@
     </row>
     <row r="83" spans="3:5">
       <c r="C83" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="D83" t="s">
         <v>49</v>
@@ -3467,7 +3332,7 @@
     </row>
     <row r="84" spans="3:5">
       <c r="C84" s="18" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="D84" t="s">
         <v>49</v>
@@ -3478,7 +3343,7 @@
     </row>
     <row r="85" spans="3:5">
       <c r="C85" s="18" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D85" t="s">
         <v>49</v>
@@ -3487,7 +3352,7 @@
     </row>
     <row r="86" spans="3:5">
       <c r="C86" s="18" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="D86" t="s">
         <v>49</v>
@@ -3509,7 +3374,7 @@
     </row>
     <row r="88" spans="3:5">
       <c r="C88" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="D88" t="s">
         <v>49</v>
@@ -3520,7 +3385,7 @@
     </row>
     <row r="89" spans="3:5">
       <c r="C89" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>48</v>
@@ -3531,10 +3396,10 @@
     </row>
     <row r="90" spans="3:5">
       <c r="C90" s="18" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="D90" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="E90" s="20">
         <v>7</v>
@@ -3577,15 +3442,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
@@ -3615,10 +3480,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3635,10 +3500,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3655,10 +3520,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3675,10 +3540,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3695,10 +3560,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3715,10 +3580,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3735,10 +3600,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3755,10 +3620,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3775,10 +3640,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3795,10 +3660,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="G14">
         <v>8</v>
@@ -3812,10 +3677,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="G15">
         <v>16</v>
@@ -3829,10 +3694,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -3846,10 +3711,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="G17">
         <v>6</v>
@@ -3863,7 +3728,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -3877,10 +3742,10 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -3894,10 +3759,10 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="G20">
         <v>13</v>
@@ -3911,10 +3776,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -3928,10 +3793,10 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -3945,10 +3810,10 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -3962,10 +3827,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -3979,10 +3844,10 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="G25">
         <v>19</v>
@@ -3996,10 +3861,10 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G26">
         <v>12</v>
@@ -4013,10 +3878,10 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -4030,10 +3895,10 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="G28">
         <v>8</v>
@@ -4047,10 +3912,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -4064,10 +3929,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -4081,10 +3946,10 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -4098,10 +3963,10 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="G32">
         <v>12</v>
@@ -4115,10 +3980,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="G33">
         <v>14</v>
@@ -4132,10 +3997,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -4149,10 +4014,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="D35" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="G35">
         <v>12</v>
@@ -4166,10 +4031,10 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="G36">
         <v>8</v>
@@ -4183,10 +4048,10 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="D37" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -4213,10 +4078,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:S14"/>
+  <dimension ref="B3:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -4231,43 +4096,43 @@
     <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" ht="18.75">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="2:19" ht="18.75">
+      <c r="B3" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+    </row>
+    <row r="4" spans="2:19">
       <c r="B4" s="7"/>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" spans="2:19">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -4305,7 +4170,7 @@
         <v>23</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>24</v>
@@ -4317,257 +4182,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="12">
-        <v>26677</v>
-      </c>
+    <row r="6" spans="2:19">
+      <c r="C6" s="11"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-      <c r="Q6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="4">
-        <v>26351</v>
-      </c>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="Q7" t="s">
-        <v>67</v>
-      </c>
-      <c r="S7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="4">
-        <v>22078</v>
-      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="Q8" t="s">
-        <v>67</v>
-      </c>
-      <c r="S8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="13" customFormat="1">
-      <c r="A9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="13">
-        <v>4</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="14">
-        <v>25060</v>
-      </c>
-      <c r="N9" s="14">
-        <v>40729</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="16">
-        <v>39399</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="4">
-        <v>26968</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>85</v>
-      </c>
-      <c r="S11" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="4">
-        <v>22704</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>90</v>
-      </c>
-      <c r="S12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="4">
-        <v>24055</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="4">
-        <v>23562</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>100</v>
-      </c>
-      <c r="S14" s="15" t="s">
-        <v>97</v>
-      </c>
+    </row>
+    <row r="9" spans="2:19" s="13" customFormat="1">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="M11" s="4"/>
+      <c r="S11" s="15"/>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="M13" s="4"/>
+      <c r="S13" s="15"/>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="M14" s="4"/>
+      <c r="S14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4575,12 +4224,6 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:K4"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" display="Anna Alàs i Jové"/>
-    <hyperlink ref="S11" r:id="rId2" tooltip="Mezzo soprano"/>
-    <hyperlink ref="S13" r:id="rId3" tooltip="Bajo-barítono"/>
-    <hyperlink ref="S14" r:id="rId4" tooltip="Bajo-barítono"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4601,40 +4244,40 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="3" spans="2:17" ht="18.75">
-      <c r="B3" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="B3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="7"/>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="1" t="s">
@@ -4691,19 +4334,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="M6" s="4">
         <v>12066</v>
       </c>
       <c r="O6" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="Q6">
         <v>85</v>
@@ -4714,10 +4357,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="L7" t="s">
         <v>27</v>
@@ -4725,8 +4368,8 @@
       <c r="M7" s="4">
         <v>22733</v>
       </c>
-      <c r="O7" s="31" t="s">
-        <v>295</v>
+      <c r="O7" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="Q7">
         <v>130</v>
@@ -4737,10 +4380,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="E8" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="L8" t="s">
         <v>27</v>
@@ -4757,10 +4400,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="E9" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="L9" t="s">
         <v>27</v>
@@ -4768,8 +4411,8 @@
       <c r="M9" s="4">
         <v>21874</v>
       </c>
-      <c r="O9" s="31" t="s">
-        <v>300</v>
+      <c r="O9" s="25" t="s">
+        <v>255</v>
       </c>
       <c r="Q9">
         <v>85</v>
@@ -4780,10 +4423,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
@@ -4791,11 +4434,11 @@
       <c r="M10" s="4">
         <v>23655</v>
       </c>
-      <c r="O10" s="31" t="s">
-        <v>303</v>
+      <c r="O10" s="25" t="s">
+        <v>258</v>
       </c>
       <c r="Q10" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="2:17">
@@ -4803,13 +4446,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="D11" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="E11" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
@@ -4817,8 +4460,8 @@
       <c r="M11" s="4">
         <v>10973</v>
       </c>
-      <c r="O11" s="31" t="s">
-        <v>308</v>
+      <c r="O11" s="25" t="s">
+        <v>263</v>
       </c>
       <c r="Q11">
         <v>85</v>
@@ -4829,13 +4472,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="D12" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="E12" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="L12" t="s">
         <v>27</v>
@@ -4843,8 +4486,8 @@
       <c r="M12" s="4">
         <v>18463</v>
       </c>
-      <c r="O12" s="31" t="s">
-        <v>312</v>
+      <c r="O12" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="Q12">
         <v>77</v>
@@ -4855,10 +4498,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="E13" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="L13" t="s">
         <v>27</v>
@@ -4869,8 +4512,8 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13" s="31" t="s">
-        <v>315</v>
+      <c r="O13" s="25" t="s">
+        <v>270</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4881,13 +4524,13 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="E14" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="F14" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
@@ -4895,8 +4538,8 @@
       <c r="M14" s="4">
         <v>15650</v>
       </c>
-      <c r="O14" s="31" t="s">
-        <v>319</v>
+      <c r="O14" s="25" t="s">
+        <v>274</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4907,10 +4550,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="E15" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="L15" t="s">
         <v>27</v>
@@ -4918,8 +4561,8 @@
       <c r="M15" s="4">
         <v>18113</v>
       </c>
-      <c r="O15" s="31" t="s">
-        <v>322</v>
+      <c r="O15" s="25" t="s">
+        <v>277</v>
       </c>
       <c r="Q15">
         <v>9</v>

--- a/insert (Ali).xlsx
+++ b/insert (Ali).xlsx
@@ -4,19 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="941"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="941" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Director" sheetId="2" r:id="rId2"/>
-    <sheet name="Autor" sheetId="5" r:id="rId3"/>
-    <sheet name="Parte" sheetId="6" r:id="rId4"/>
-    <sheet name="Personaje" sheetId="7" r:id="rId5"/>
-    <sheet name="invitado_especial" sheetId="8" r:id="rId6"/>
-    <sheet name="Directo_escena" sheetId="16" r:id="rId7"/>
+    <sheet name="Obra" sheetId="1" r:id="rId1"/>
+    <sheet name="Fecha_Presentacion" sheetId="18" r:id="rId2"/>
+    <sheet name="Director" sheetId="2" r:id="rId3"/>
+    <sheet name="Autor" sheetId="5" r:id="rId4"/>
+    <sheet name="Parte" sheetId="6" r:id="rId5"/>
+    <sheet name="Personaje" sheetId="7" r:id="rId6"/>
+    <sheet name="trabajador_cargo" sheetId="19" r:id="rId7"/>
+    <sheet name="Cantantes" sheetId="8" r:id="rId8"/>
+    <sheet name="Directo_escena" sheetId="16" r:id="rId9"/>
+    <sheet name="Elenco" sheetId="17" r:id="rId10"/>
+    <sheet name="NACIONALIDAD" sheetId="20" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$3:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Obra!$B$3:$I$3</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="442">
   <si>
     <t>Nombre</t>
   </si>
@@ -269,9 +276,6 @@
     <t>16/01/1886</t>
   </si>
   <si>
-    <t>Paderno Fasolaro</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Fortunino</t>
   </si>
   <si>
@@ -442,9 +446,6 @@
     <t>05/12/1791</t>
   </si>
   <si>
-    <t>Salzburgo</t>
-  </si>
-  <si>
     <t>Conde Almaviva</t>
   </si>
   <si>
@@ -524,9 +525,6 @@
   </si>
   <si>
     <t>23/04/1857</t>
-  </si>
-  <si>
-    <t>napoles</t>
   </si>
   <si>
     <t>Canio</t>
@@ -960,14 +958,483 @@
   <si>
     <t>http://www.google.co.ve/imgres?imgurl=http://www.theater-augsburg.de/data/mitarbeiter/240/nordmeyer_carolinneu.jpg&amp;imgrefurl=http://www.theater-augsburg.de/ta_design_popup.php?backlink%3DL2NvbnRlbnQucGhwP25hdj00JnN1Yj02NCZzdWJzdWI9MCZzZWw9Mg%3D%3D%26sel%3D1%26mitID%3D240&amp;h=198&amp;w=198&amp;sz=39&amp;tbnid=7SE9kyUDyqI-EM:&amp;tbnh=90&amp;tbnw=90&amp;zoom=1&amp;usg=__rl0yZrP7Fq4gn6TdP8BtURooxgU=&amp;docid=HCtnhIEBz780EM&amp;sa=X&amp;ei=d1vBUPb1Osrt0gGwo4GICA&amp;ved=0CD8Q9QEwAw&amp;dur=1093</t>
   </si>
+  <si>
+    <t>Palermo, Al vicoletto</t>
+  </si>
+  <si>
+    <t>Varsovia, Nowotel Warzsawa Centrum</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Newman</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Los Angeles, South Spring Street</t>
+  </si>
+  <si>
+    <t>Joana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria </t>
+  </si>
+  <si>
+    <t>Amaro da Costa</t>
+  </si>
+  <si>
+    <t>Da luz Carneiro</t>
+  </si>
+  <si>
+    <t>Lisboa, Rua Castilho</t>
+  </si>
+  <si>
+    <t>Paderno Fasolaro, Strada Provinciale 40</t>
+  </si>
+  <si>
+    <t>Salzburgo, Amogasse</t>
+  </si>
+  <si>
+    <t>Napoles, Piazza de Garibaldi, Albergo Potenza</t>
+  </si>
+  <si>
+    <t>Carpi, Modena</t>
+  </si>
+  <si>
+    <t>Varsovia, Zurawia</t>
+  </si>
+  <si>
+    <t>Milano, Via Porrone Bassano</t>
+  </si>
+  <si>
+    <t>Milano, Via Meravigli</t>
+  </si>
+  <si>
+    <t>Milano, Albergo Mentana</t>
+  </si>
+  <si>
+    <t>est. 1960 ,Stratford-upon-Avon</t>
+  </si>
+  <si>
+    <t>Munich, Rosental</t>
+  </si>
+  <si>
+    <t>Munich, Baaderstrabe</t>
+  </si>
+  <si>
+    <t>Buenos Aires, Calle Esmeralda</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Agresta</t>
+  </si>
+  <si>
+    <t>Norah</t>
+  </si>
+  <si>
+    <t>Amsellem</t>
+  </si>
+  <si>
+    <t>Paris, Rue Pernelle</t>
+  </si>
+  <si>
+    <t>Gun</t>
+  </si>
+  <si>
+    <t>Brit</t>
+  </si>
+  <si>
+    <t>Barkmin</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Altenstadt</t>
+  </si>
+  <si>
+    <t>ELENCO</t>
+  </si>
+  <si>
+    <t>pk_personaje</t>
+  </si>
+  <si>
+    <t>pk_cantante</t>
+  </si>
+  <si>
+    <t>pk_fecha</t>
+  </si>
+  <si>
+    <t>Fecha_Presentacion</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>fk_obra</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Boulianne</t>
+  </si>
+  <si>
+    <t>Gaelle</t>
+  </si>
+  <si>
+    <t>Arquez</t>
+  </si>
+  <si>
+    <t>Av. De la liberation</t>
+  </si>
+  <si>
+    <t>Santa Fe</t>
+  </si>
+  <si>
+    <t>Beth</t>
+  </si>
+  <si>
+    <t>Clayton</t>
+  </si>
+  <si>
+    <t>Danyce</t>
+  </si>
+  <si>
+    <t>Graves</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Hipp</t>
+  </si>
+  <si>
+    <t>Klodawa</t>
+  </si>
+  <si>
+    <t>19th St. NW</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Grevelius</t>
+  </si>
+  <si>
+    <t>Siebel</t>
+  </si>
+  <si>
+    <t>Gribbylund</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Archibald</t>
+  </si>
+  <si>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>Elchin</t>
+  </si>
+  <si>
+    <t>Azizov</t>
+  </si>
+  <si>
+    <t>Lado</t>
+  </si>
+  <si>
+    <t>Ataneli</t>
+  </si>
+  <si>
+    <t>neumannsgasse</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Gagnidze</t>
+  </si>
+  <si>
+    <t>Tiflis</t>
+  </si>
+  <si>
+    <t>Mathias</t>
+  </si>
+  <si>
+    <t>Goerne</t>
+  </si>
+  <si>
+    <t>Viena, Ottakring</t>
+  </si>
+  <si>
+    <t>Josue</t>
+  </si>
+  <si>
+    <t>Hopkins</t>
+  </si>
+  <si>
+    <t>55 Wall Street</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Howards</t>
+  </si>
+  <si>
+    <t>Murray Street</t>
+  </si>
+  <si>
+    <t>Humpries</t>
+  </si>
+  <si>
+    <t>Paradise St.</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Claycomb</t>
+  </si>
+  <si>
+    <t>Co Rd 333</t>
+  </si>
+  <si>
+    <t>Garden Street</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Owens</t>
+  </si>
+  <si>
+    <t>Willard</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Kingston, New lincoln Rd</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Texas Ave.</t>
+  </si>
+  <si>
+    <t>Sumuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian </t>
+  </si>
+  <si>
+    <t>Van Horn</t>
+  </si>
+  <si>
+    <t>Hayes Valley Inn</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Crossley</t>
+  </si>
+  <si>
+    <t>Mercer</t>
+  </si>
+  <si>
+    <t>Rue de mossy</t>
+  </si>
+  <si>
+    <t>Ildebrando</t>
+  </si>
+  <si>
+    <t>D'Arcangelo</t>
+  </si>
+  <si>
+    <t>Los Angeles, W 8th st</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Esposito</t>
+  </si>
+  <si>
+    <t>Gabor</t>
+  </si>
+  <si>
+    <t>Bretz</t>
+  </si>
+  <si>
+    <t>Budapest, Vizivaros</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Pomakov</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Franz</t>
+  </si>
+  <si>
+    <t>Josef</t>
+  </si>
+  <si>
+    <t>Selig</t>
+  </si>
+  <si>
+    <t>Rindermarkaft</t>
+  </si>
+  <si>
+    <t>Jongmin</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Hamburgo</t>
+  </si>
+  <si>
+    <t>Rene</t>
+  </si>
+  <si>
+    <t>Pape</t>
+  </si>
+  <si>
+    <t>Francesco</t>
+  </si>
+  <si>
+    <t>Demuro</t>
+  </si>
+  <si>
+    <t>44 Wall Street</t>
+  </si>
+  <si>
+    <t>Berger</t>
+  </si>
+  <si>
+    <t>Fresno</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Berti</t>
+  </si>
+  <si>
+    <t>invitado</t>
+  </si>
+  <si>
+    <t>soprano</t>
+  </si>
+  <si>
+    <t>messosoprano</t>
+  </si>
+  <si>
+    <t>baritono</t>
+  </si>
+  <si>
+    <t>contraalto</t>
+  </si>
+  <si>
+    <t>bajo</t>
+  </si>
+  <si>
+    <t>tenor</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>fk_trabajador</t>
+  </si>
+  <si>
+    <t>fk_director</t>
+  </si>
+  <si>
+    <t>fk_coreografo</t>
+  </si>
+  <si>
+    <t>fk_director_Escenografo</t>
+  </si>
+  <si>
+    <t>fk_autor</t>
+  </si>
+  <si>
+    <t>fk_escenografo</t>
+  </si>
+  <si>
+    <t>fk_cantante</t>
+  </si>
+  <si>
+    <t>fk_Bailarin</t>
+  </si>
+  <si>
+    <t>fk_invitado</t>
+  </si>
+  <si>
+    <t>fk_Musico</t>
+  </si>
+  <si>
+    <t>fk_cargo</t>
+  </si>
+  <si>
+    <t>sueldo - £</t>
+  </si>
+  <si>
+    <t>fecha_fin</t>
+  </si>
+  <si>
+    <t>fecha_inicio</t>
+  </si>
+  <si>
+    <t>edad</t>
+  </si>
+  <si>
+    <t>años - empresa</t>
+  </si>
+  <si>
+    <t>Trabajador_Cargo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="18">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1055,8 +1522,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1090,6 +1584,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,137 +1655,137 @@
   </borders>
   <cellStyleXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1294,25 +1800,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="59"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="59" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="59" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1322,7 +1828,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1335,9 +1853,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1476,6 +1991,213 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="fecha_presentacion"/>
+      <sheetName val="Director"/>
+      <sheetName val="Coreografo"/>
+      <sheetName val="Libreto"/>
+      <sheetName val="Autor"/>
+      <sheetName val="Parte"/>
+      <sheetName val="Personaje"/>
+      <sheetName val="Cantante"/>
+      <sheetName val="Elenco"/>
+      <sheetName val="Bailarin"/>
+      <sheetName val="Nacionalidad_trabajador"/>
+      <sheetName val="fecha"/>
+      <sheetName val="Directo_escenografia"/>
+      <sheetName val="Musico"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10">
+        <row r="6">
+          <cell r="B6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>33</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1802,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1818,21 +2540,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18.75">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="L2" s="26" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="L2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="2" t="s">
@@ -1879,7 +2601,9 @@
       <c r="D4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>41294</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -1893,16 +2617,19 @@
       <c r="D5" t="s">
         <v>67</v>
       </c>
+      <c r="E5" s="4">
+        <v>41299</v>
+      </c>
     </row>
     <row r="6" spans="2:14">
       <c r="B6">
         <v>7</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="2:14" s="3" customFormat="1">
@@ -1910,10 +2637,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
         <v>114</v>
-      </c>
-      <c r="D7" t="s">
-        <v>115</v>
       </c>
       <c r="E7" s="5"/>
       <c r="L7" s="8"/>
@@ -1923,26 +2650,26 @@
     </row>
     <row r="10" spans="2:14">
       <c r="C10" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="2:14">
       <c r="C12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="C14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1963,52 +2690,543 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:Q8"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="B11" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="3" spans="1:17" ht="18.75">
-      <c r="B3" s="26" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>41294</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>41299</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>41289</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>41292</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:R10"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="3" spans="1:18" ht="18.75">
+      <c r="B3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="B4" s="7"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2054,16 +3272,19 @@
       <c r="P5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2078,17 +3299,22 @@
         <v>24564</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="O6" s="3"/>
+        <v>241</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>288</v>
+      </c>
       <c r="P6" s="3">
         <v>85</v>
       </c>
-      <c r="Q6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -2096,10 +3322,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L7" t="s">
         <v>27</v>
@@ -2108,16 +3334,22 @@
         <v>20306</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>285</v>
+        <v>282</v>
+      </c>
+      <c r="O7" t="s">
+        <v>289</v>
       </c>
       <c r="P7">
-        <v>23</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>130</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -2125,10 +3357,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L8" t="s">
         <v>58</v>
@@ -2137,13 +3369,77 @@
         <v>27499</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P8">
         <v>3</v>
       </c>
-      <c r="Q8" t="s">
-        <v>114</v>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" t="s">
+        <v>291</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="4">
+        <v>19794</v>
+      </c>
+      <c r="O9" t="s">
+        <v>293</v>
+      </c>
+      <c r="P9">
+        <v>222</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" t="s">
+        <v>297</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="4">
+        <v>28033</v>
+      </c>
+      <c r="O10" t="s">
+        <v>298</v>
+      </c>
+      <c r="P10">
+        <v>131</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2165,12 +3461,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:Q9"/>
+  <dimension ref="B3:R9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2183,43 +3479,43 @@
     <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="18.75">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:18" ht="18.75">
+      <c r="B3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-    </row>
-    <row r="4" spans="2:17">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+    </row>
+    <row r="4" spans="2:18">
       <c r="B4" s="7"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="2:17">
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="2:18">
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
@@ -2268,8 +3564,11 @@
       <c r="Q5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="2:17">
+      <c r="R5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
       <c r="B6">
         <v>1</v>
       </c>
@@ -2289,106 +3588,118 @@
         <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>72</v>
+        <v>299</v>
       </c>
       <c r="Q6">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="2:17">
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>119</v>
       </c>
       <c r="L7" t="s">
         <v>27</v>
       </c>
       <c r="M7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="P7" s="18" t="s">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="Q7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="2:17">
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L8" t="s">
         <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N8" s="4">
         <v>7161</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>301</v>
       </c>
       <c r="Q8">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="2:17">
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
         <v>73</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>74</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
       </c>
       <c r="L9" t="s">
         <v>27</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N9" s="4">
         <v>393</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q9">
         <v>59</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2411,12 +3722,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2425,13 +3736,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="6" t="s">
@@ -2451,6 +3762,9 @@
       </c>
     </row>
     <row r="4" spans="2:6">
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4" s="20" t="s">
         <v>40</v>
       </c>
@@ -2462,41 +3776,62 @@
       </c>
     </row>
     <row r="5" spans="2:6">
+      <c r="B5">
+        <v>2</v>
+      </c>
       <c r="C5" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E5" s="20">
         <v>8</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:6">
+      <c r="B6">
+        <v>3</v>
+      </c>
       <c r="C6" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E6" s="20">
         <v>8</v>
       </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
+      <c r="B7">
+        <v>4</v>
+      </c>
       <c r="C7" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E7" s="20">
         <v>8</v>
       </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
+      <c r="B8">
+        <v>5</v>
+      </c>
       <c r="C8" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>42</v>
@@ -2504,21 +3839,33 @@
       <c r="E8" s="20">
         <v>8</v>
       </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
+      <c r="B9">
+        <v>6</v>
+      </c>
       <c r="C9" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E9" s="20">
         <v>8</v>
       </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
+      <c r="B10">
+        <v>7</v>
+      </c>
       <c r="C10" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>49</v>
@@ -2526,10 +3873,16 @@
       <c r="E10" s="20">
         <v>8</v>
       </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
+      <c r="B11">
+        <v>8</v>
+      </c>
       <c r="C11" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>43</v>
@@ -2537,10 +3890,16 @@
       <c r="E11" s="20">
         <v>8</v>
       </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
+      <c r="B12">
+        <v>9</v>
+      </c>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>49</v>
@@ -2548,10 +3907,16 @@
       <c r="E12" s="20">
         <v>8</v>
       </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
+      <c r="B13">
+        <v>10</v>
+      </c>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>45</v>
@@ -2559,10 +3924,16 @@
       <c r="E13" s="20">
         <v>8</v>
       </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
+      <c r="B14">
+        <v>11</v>
+      </c>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>49</v>
@@ -2570,10 +3941,16 @@
       <c r="E14" s="20">
         <v>8</v>
       </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
+      <c r="B15">
+        <v>12</v>
+      </c>
       <c r="C15" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>44</v>
@@ -2581,8 +3958,14 @@
       <c r="E15" s="20">
         <v>8</v>
       </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
+      <c r="B16">
+        <v>13</v>
+      </c>
       <c r="C16" s="20" t="s">
         <v>47</v>
       </c>
@@ -2592,10 +3975,16 @@
       <c r="E16" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="3:5">
+      <c r="F16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>14</v>
+      </c>
       <c r="C17" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>41</v>
@@ -2603,21 +3992,33 @@
       <c r="E17" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:5">
+      <c r="F17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>15</v>
+      </c>
       <c r="C18" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E18" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:5">
+      <c r="F18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19">
+        <v>16</v>
+      </c>
       <c r="C19" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>49</v>
@@ -2625,21 +4026,33 @@
       <c r="E19" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="3:5">
+      <c r="F19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
+        <v>17</v>
+      </c>
       <c r="C20" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E20" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:5">
+      <c r="F20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21">
+        <v>18</v>
+      </c>
       <c r="C21" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>39</v>
@@ -2647,21 +4060,33 @@
       <c r="E21" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:5">
+      <c r="F21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22">
+        <v>19</v>
+      </c>
       <c r="C22" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E22" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:5">
+      <c r="F22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23">
+        <v>20</v>
+      </c>
       <c r="C23" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>43</v>
@@ -2669,10 +4094,16 @@
       <c r="E23" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="3:5">
+      <c r="F23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24">
+        <v>21</v>
+      </c>
       <c r="C24" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>42</v>
@@ -2680,10 +4111,16 @@
       <c r="E24" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:5">
+      <c r="F24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25">
+        <v>22</v>
+      </c>
       <c r="C25" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>49</v>
@@ -2691,10 +4128,16 @@
       <c r="E25" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="3:5">
+      <c r="F25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26">
+        <v>23</v>
+      </c>
       <c r="C26" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>43</v>
@@ -2702,10 +4145,16 @@
       <c r="E26" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="3:5">
+      <c r="F26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27">
+        <v>24</v>
+      </c>
       <c r="C27" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>42</v>
@@ -2713,10 +4162,16 @@
       <c r="E27" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="3:5">
+      <c r="F27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28">
+        <v>25</v>
+      </c>
       <c r="C28" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>39</v>
@@ -2724,21 +4179,33 @@
       <c r="E28" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="3:5">
+      <c r="F28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29">
+        <v>26</v>
+      </c>
       <c r="C29" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E29" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:5">
+      <c r="F29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30">
+        <v>27</v>
+      </c>
       <c r="C30" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>49</v>
@@ -2746,10 +4213,16 @@
       <c r="E30" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="3:5">
+      <c r="F30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31">
+        <v>28</v>
+      </c>
       <c r="C31" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>49</v>
@@ -2757,10 +4230,16 @@
       <c r="E31" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="3:5">
+      <c r="F31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32">
+        <v>29</v>
+      </c>
       <c r="C32" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>42</v>
@@ -2768,10 +4247,16 @@
       <c r="E32" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="3:5">
+      <c r="F32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33">
+        <v>30</v>
+      </c>
       <c r="C33" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>42</v>
@@ -2779,10 +4264,16 @@
       <c r="E33" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="3:5">
+      <c r="F33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34">
+        <v>31</v>
+      </c>
       <c r="C34" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>49</v>
@@ -2790,8 +4281,14 @@
       <c r="E34" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="3:5">
+      <c r="F34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35">
+        <v>32</v>
+      </c>
       <c r="C35" s="20" t="s">
         <v>40</v>
       </c>
@@ -2802,9 +4299,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="2:6">
+      <c r="B36">
+        <v>33</v>
+      </c>
       <c r="C36" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>49</v>
@@ -2812,19 +4312,31 @@
       <c r="E36" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="3:5">
+      <c r="F36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37">
+        <v>34</v>
+      </c>
       <c r="C37" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E37" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="3:5">
+      <c r="F37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38">
+        <v>35</v>
+      </c>
       <c r="C38" s="20" t="s">
         <v>47</v>
       </c>
@@ -2834,21 +4346,33 @@
       <c r="E38" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="3:5">
+      <c r="F38">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39">
+        <v>36</v>
+      </c>
       <c r="C39" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E39" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="3:5">
+      <c r="F39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40">
+        <v>37</v>
+      </c>
       <c r="C40" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>49</v>
@@ -2856,10 +4380,16 @@
       <c r="E40" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="3:5">
+      <c r="F40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41">
+        <v>38</v>
+      </c>
       <c r="C41" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>49</v>
@@ -2867,10 +4397,16 @@
       <c r="E41" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="3:5">
+      <c r="F41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42">
+        <v>39</v>
+      </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>39</v>
@@ -2878,10 +4414,16 @@
       <c r="E42" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="3:5">
+      <c r="F42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43">
+        <v>40</v>
+      </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>49</v>
@@ -2889,10 +4431,16 @@
       <c r="E43" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="3:5">
+      <c r="F43">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44">
+        <v>41</v>
+      </c>
       <c r="C44" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>49</v>
@@ -2900,10 +4448,16 @@
       <c r="E44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="3:5">
+      <c r="F44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45">
+        <v>42</v>
+      </c>
       <c r="C45" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>49</v>
@@ -2911,19 +4465,31 @@
       <c r="E45" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="3:5">
+      <c r="F45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46">
+        <v>43</v>
+      </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E46" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="3:5">
+      <c r="F46">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47">
+        <v>44</v>
+      </c>
       <c r="C47" t="s">
         <v>40</v>
       </c>
@@ -2934,9 +4500,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="2:6">
+      <c r="B48">
+        <v>45</v>
+      </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>44</v>
@@ -2944,10 +4513,16 @@
       <c r="E48" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="3:5">
+      <c r="F48">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49">
+        <v>46</v>
+      </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>44</v>
@@ -2955,10 +4530,16 @@
       <c r="E49" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="3:5">
+      <c r="F49">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50">
+        <v>47</v>
+      </c>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>43</v>
@@ -2966,10 +4547,16 @@
       <c r="E50" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="3:5">
+      <c r="F50">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51">
+        <v>48</v>
+      </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>44</v>
@@ -2977,10 +4564,16 @@
       <c r="E51" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="3:5">
+      <c r="F51">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52">
+        <v>49</v>
+      </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>45</v>
@@ -2988,10 +4581,16 @@
       <c r="E52" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="3:5">
+      <c r="F52">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53">
+        <v>50</v>
+      </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>45</v>
@@ -2999,10 +4598,16 @@
       <c r="E53" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="3:5">
+      <c r="F53">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54">
+        <v>51</v>
+      </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>46</v>
@@ -3010,10 +4615,16 @@
       <c r="E54" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="3:5">
+      <c r="F54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55">
+        <v>52</v>
+      </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>46</v>
@@ -3021,10 +4632,16 @@
       <c r="E55" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="3:5">
+      <c r="F55">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56">
+        <v>53</v>
+      </c>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>43</v>
@@ -3032,8 +4649,14 @@
       <c r="E56" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="3:5">
+      <c r="F56">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57">
+        <v>54</v>
+      </c>
       <c r="C57" t="s">
         <v>47</v>
       </c>
@@ -3043,10 +4666,16 @@
       <c r="E57" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="3:5">
+      <c r="F57">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58">
+        <v>55</v>
+      </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>43</v>
@@ -3054,10 +4683,16 @@
       <c r="E58" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="3:5">
+      <c r="F58">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59">
+        <v>56</v>
+      </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
         <v>49</v>
@@ -3065,10 +4700,16 @@
       <c r="E59" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="3:5">
+      <c r="F59">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60">
+        <v>57</v>
+      </c>
       <c r="C60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>43</v>
@@ -3076,10 +4717,16 @@
       <c r="E60" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="3:5">
+      <c r="F60">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61">
+        <v>58</v>
+      </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>44</v>
@@ -3087,10 +4734,16 @@
       <c r="E61" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="3:5">
+      <c r="F61">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62">
+        <v>59</v>
+      </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>43</v>
@@ -3098,10 +4751,16 @@
       <c r="E62" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="3:5">
+      <c r="F62">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63">
+        <v>60</v>
+      </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>49</v>
@@ -3109,10 +4768,16 @@
       <c r="E63" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="3:5">
+      <c r="F63">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64">
+        <v>61</v>
+      </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>49</v>
@@ -3120,10 +4785,16 @@
       <c r="E64" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="3:5">
+      <c r="F64">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65">
+        <v>62</v>
+      </c>
       <c r="C65" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>43</v>
@@ -3131,10 +4802,16 @@
       <c r="E65" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="3:5">
+      <c r="F65">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66">
+        <v>63</v>
+      </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>39</v>
@@ -3142,10 +4819,16 @@
       <c r="E66" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="3:5">
+      <c r="F66">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67">
+        <v>64</v>
+      </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>49</v>
@@ -3153,10 +4836,16 @@
       <c r="E67" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="3:5">
+      <c r="F67">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68">
+        <v>65</v>
+      </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>43</v>
@@ -3164,10 +4853,16 @@
       <c r="E68" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="3:5">
+      <c r="F68">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69">
+        <v>66</v>
+      </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>49</v>
@@ -3175,10 +4870,16 @@
       <c r="E69" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="3:5">
+      <c r="F69">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70">
+        <v>67</v>
+      </c>
       <c r="C70" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>43</v>
@@ -3186,10 +4887,16 @@
       <c r="E70" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="3:5">
+      <c r="F70">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71">
+        <v>68</v>
+      </c>
       <c r="C71" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D71" t="s">
         <v>45</v>
@@ -3197,10 +4904,16 @@
       <c r="E71" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="3:5">
+      <c r="F71">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72">
+        <v>69</v>
+      </c>
       <c r="C72" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D72" t="s">
         <v>49</v>
@@ -3208,10 +4921,16 @@
       <c r="E72" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="3:5">
+      <c r="F72">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73">
+        <v>70</v>
+      </c>
       <c r="C73" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D73" t="s">
         <v>44</v>
@@ -3219,10 +4938,16 @@
       <c r="E73" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="3:5">
+      <c r="F73">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74">
+        <v>71</v>
+      </c>
       <c r="C74" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D74" t="s">
         <v>44</v>
@@ -3230,10 +4955,16 @@
       <c r="E74" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="3:5">
+      <c r="F74">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75">
+        <v>72</v>
+      </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D75" t="s">
         <v>39</v>
@@ -3241,10 +4972,16 @@
       <c r="E75" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="3:5">
+      <c r="F75">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76">
+        <v>73</v>
+      </c>
       <c r="C76" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D76" t="s">
         <v>49</v>
@@ -3252,10 +4989,16 @@
       <c r="E76" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="3:5">
+      <c r="F76">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77">
+        <v>74</v>
+      </c>
       <c r="C77" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D77" t="s">
         <v>43</v>
@@ -3263,10 +5006,16 @@
       <c r="E77" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="3:5">
+      <c r="F77">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78">
+        <v>75</v>
+      </c>
       <c r="C78" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D78" t="s">
         <v>44</v>
@@ -3274,10 +5023,16 @@
       <c r="E78" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="3:5">
+      <c r="F78">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79">
+        <v>76</v>
+      </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D79" t="s">
         <v>46</v>
@@ -3285,8 +5040,14 @@
       <c r="E79" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="3:5">
+      <c r="F79">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80">
+        <v>77</v>
+      </c>
       <c r="C80" t="s">
         <v>40</v>
       </c>
@@ -3297,20 +5058,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="3:5">
+    <row r="81" spans="2:6">
+      <c r="B81">
+        <v>78</v>
+      </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D81" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E81" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="3:5">
+      <c r="F81">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82">
+        <v>79</v>
+      </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D82" t="s">
         <v>44</v>
@@ -3318,10 +5088,16 @@
       <c r="E82" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="3:5">
+      <c r="F82">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83">
+        <v>80</v>
+      </c>
       <c r="C83" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D83" t="s">
         <v>49</v>
@@ -3329,10 +5105,16 @@
       <c r="E83" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="3:5">
+      <c r="F83">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84">
+        <v>81</v>
+      </c>
       <c r="C84" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D84" t="s">
         <v>49</v>
@@ -3340,19 +5122,33 @@
       <c r="E84" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="3:5">
+      <c r="F84">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85">
+        <v>82</v>
+      </c>
       <c r="C85" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D85" t="s">
         <v>49</v>
       </c>
-      <c r="E85" s="20"/>
-    </row>
-    <row r="86" spans="3:5">
+      <c r="E85" s="20">
+        <v>7</v>
+      </c>
+      <c r="F85">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86">
+        <v>83</v>
+      </c>
       <c r="C86" s="18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D86" t="s">
         <v>49</v>
@@ -3360,8 +5156,14 @@
       <c r="E86" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="3:5">
+      <c r="F86">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87">
+        <v>84</v>
+      </c>
       <c r="C87" s="18" t="s">
         <v>47</v>
       </c>
@@ -3371,10 +5173,16 @@
       <c r="E87" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="3:5">
+      <c r="F87">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88">
+        <v>85</v>
+      </c>
       <c r="C88" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D88" t="s">
         <v>49</v>
@@ -3382,10 +5190,16 @@
       <c r="E88" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="3:5">
+      <c r="F88">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89">
+        <v>86</v>
+      </c>
       <c r="C89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>48</v>
@@ -3393,16 +5207,25 @@
       <c r="E89" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="3:5">
+      <c r="F89">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90">
+        <v>87</v>
+      </c>
       <c r="C90" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D90" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E90" s="20">
         <v>7</v>
+      </c>
+      <c r="F90">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3426,12 +5249,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -3442,15 +5265,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
@@ -3500,10 +5323,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
         <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>85</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3520,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
         <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3540,10 +5363,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
         <v>92</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3560,10 +5383,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
         <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3580,10 +5403,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
         <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3600,10 +5423,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
         <v>94</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3620,10 +5443,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
         <v>96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3643,7 +5466,7 @@
         <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3660,10 +5483,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
         <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
       </c>
       <c r="G14">
         <v>8</v>
@@ -3677,10 +5500,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
         <v>101</v>
-      </c>
-      <c r="D15" t="s">
-        <v>102</v>
       </c>
       <c r="G15">
         <v>16</v>
@@ -3694,10 +5517,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
         <v>103</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -3711,10 +5534,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
         <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
       </c>
       <c r="G17">
         <v>6</v>
@@ -3728,7 +5551,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -3742,10 +5565,10 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
         <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -3759,10 +5582,10 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
         <v>110</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
       </c>
       <c r="G20">
         <v>13</v>
@@ -3776,10 +5599,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
         <v>112</v>
-      </c>
-      <c r="D21" t="s">
-        <v>113</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -3793,10 +5616,10 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -3810,10 +5633,10 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -3827,10 +5650,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -3844,10 +5667,10 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G25">
         <v>19</v>
@@ -3861,10 +5684,10 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G26">
         <v>12</v>
@@ -3878,10 +5701,10 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -3895,10 +5718,10 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G28">
         <v>8</v>
@@ -3912,10 +5735,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3929,10 +5752,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3946,10 +5769,10 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3963,10 +5786,10 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G32">
         <v>12</v>
@@ -3980,10 +5803,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G33">
         <v>14</v>
@@ -3997,10 +5820,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -4014,10 +5837,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G35">
         <v>12</v>
@@ -4031,10 +5854,10 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G36">
         <v>8</v>
@@ -4048,10 +5871,10 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -4076,12 +5899,2344 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:S14"/>
+  <dimension ref="A3:Q192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="L5" sqref="L5:Q37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:17">
+      <c r="C3" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>37964</v>
+      </c>
+      <c r="F5" s="32">
+        <f t="shared" ref="F5:F13" si="0">50*A5/3</f>
+        <v>200</v>
+      </c>
+      <c r="H5" t="s">
+        <v>424</v>
+      </c>
+      <c r="I5" t="s">
+        <v>424</v>
+      </c>
+      <c r="J5" t="s">
+        <v>424</v>
+      </c>
+      <c r="K5">
+        <f>[1]Bailarin!B6</f>
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>424</v>
+      </c>
+      <c r="M5" t="s">
+        <v>424</v>
+      </c>
+      <c r="N5" t="s">
+        <v>424</v>
+      </c>
+      <c r="O5" t="s">
+        <v>424</v>
+      </c>
+      <c r="P5" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>39433</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" si="0"/>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="H6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I6" t="s">
+        <v>424</v>
+      </c>
+      <c r="J6" t="s">
+        <v>424</v>
+      </c>
+      <c r="K6">
+        <f>[1]Bailarin!B7</f>
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>424</v>
+      </c>
+      <c r="M6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N6" t="s">
+        <v>424</v>
+      </c>
+      <c r="O6" t="s">
+        <v>424</v>
+      </c>
+      <c r="P6" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>37029</v>
+      </c>
+      <c r="F7" s="32">
+        <f t="shared" si="0"/>
+        <v>183.33333333333334</v>
+      </c>
+      <c r="H7" t="s">
+        <v>424</v>
+      </c>
+      <c r="I7" t="s">
+        <v>424</v>
+      </c>
+      <c r="J7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K7">
+        <f>[1]Bailarin!B8</f>
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>424</v>
+      </c>
+      <c r="M7" t="s">
+        <v>424</v>
+      </c>
+      <c r="N7" t="s">
+        <v>424</v>
+      </c>
+      <c r="O7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>37027</v>
+      </c>
+      <c r="F8" s="32">
+        <f t="shared" si="0"/>
+        <v>183.33333333333334</v>
+      </c>
+      <c r="H8" t="s">
+        <v>424</v>
+      </c>
+      <c r="I8" t="s">
+        <v>424</v>
+      </c>
+      <c r="J8" t="s">
+        <v>424</v>
+      </c>
+      <c r="K8">
+        <f>[1]Bailarin!B9</f>
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>424</v>
+      </c>
+      <c r="M8" t="s">
+        <v>424</v>
+      </c>
+      <c r="N8" t="s">
+        <v>424</v>
+      </c>
+      <c r="O8" t="s">
+        <v>424</v>
+      </c>
+      <c r="P8" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>38225</v>
+      </c>
+      <c r="F9" s="32">
+        <f t="shared" si="0"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="H9" t="s">
+        <v>424</v>
+      </c>
+      <c r="I9" t="s">
+        <v>424</v>
+      </c>
+      <c r="J9" t="s">
+        <v>424</v>
+      </c>
+      <c r="K9">
+        <f>[1]Bailarin!B10</f>
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>424</v>
+      </c>
+      <c r="M9" t="s">
+        <v>424</v>
+      </c>
+      <c r="N9" t="s">
+        <v>424</v>
+      </c>
+      <c r="O9" t="s">
+        <v>424</v>
+      </c>
+      <c r="P9" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>38808</v>
+      </c>
+      <c r="F10" s="32">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H10" t="s">
+        <v>424</v>
+      </c>
+      <c r="I10" t="s">
+        <v>424</v>
+      </c>
+      <c r="J10" t="s">
+        <v>424</v>
+      </c>
+      <c r="K10">
+        <f>[1]Bailarin!B11</f>
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>424</v>
+      </c>
+      <c r="M10" t="s">
+        <v>424</v>
+      </c>
+      <c r="N10" t="s">
+        <v>424</v>
+      </c>
+      <c r="O10" t="s">
+        <v>424</v>
+      </c>
+      <c r="P10" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>38385</v>
+      </c>
+      <c r="F11" s="32">
+        <f t="shared" si="0"/>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="H11" t="s">
+        <v>424</v>
+      </c>
+      <c r="I11" t="s">
+        <v>424</v>
+      </c>
+      <c r="J11" t="s">
+        <v>424</v>
+      </c>
+      <c r="K11">
+        <f>[1]Bailarin!B12</f>
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>424</v>
+      </c>
+      <c r="M11" t="s">
+        <v>424</v>
+      </c>
+      <c r="N11" t="s">
+        <v>424</v>
+      </c>
+      <c r="O11" t="s">
+        <v>424</v>
+      </c>
+      <c r="P11" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4">
+        <v>38879</v>
+      </c>
+      <c r="F12" s="32">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I12" t="s">
+        <v>424</v>
+      </c>
+      <c r="J12" t="s">
+        <v>424</v>
+      </c>
+      <c r="K12">
+        <f>[1]Bailarin!B13</f>
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>424</v>
+      </c>
+      <c r="M12" t="s">
+        <v>424</v>
+      </c>
+      <c r="N12" t="s">
+        <v>424</v>
+      </c>
+      <c r="O12" t="s">
+        <v>424</v>
+      </c>
+      <c r="P12" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4">
+        <v>38886</v>
+      </c>
+      <c r="F13" s="32">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>424</v>
+      </c>
+      <c r="I13" t="s">
+        <v>424</v>
+      </c>
+      <c r="J13" t="s">
+        <v>424</v>
+      </c>
+      <c r="K13">
+        <f>[1]Bailarin!B14</f>
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>424</v>
+      </c>
+      <c r="M13" t="s">
+        <v>424</v>
+      </c>
+      <c r="N13" t="s">
+        <v>424</v>
+      </c>
+      <c r="O13" t="s">
+        <v>424</v>
+      </c>
+      <c r="P13" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4">
+        <v>37629</v>
+      </c>
+      <c r="F14" s="32">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>424</v>
+      </c>
+      <c r="I14" t="s">
+        <v>424</v>
+      </c>
+      <c r="J14" t="s">
+        <v>424</v>
+      </c>
+      <c r="K14">
+        <f>[1]Bailarin!B15</f>
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>424</v>
+      </c>
+      <c r="M14" t="s">
+        <v>424</v>
+      </c>
+      <c r="N14" t="s">
+        <v>424</v>
+      </c>
+      <c r="O14" t="s">
+        <v>424</v>
+      </c>
+      <c r="P14" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <v>37115</v>
+      </c>
+      <c r="F15" s="32">
+        <f t="shared" ref="F15:F37" si="1">50*A15/3</f>
+        <v>183.33333333333334</v>
+      </c>
+      <c r="H15" t="s">
+        <v>424</v>
+      </c>
+      <c r="I15" t="s">
+        <v>424</v>
+      </c>
+      <c r="J15" t="s">
+        <v>424</v>
+      </c>
+      <c r="K15">
+        <f>[1]Bailarin!B16</f>
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
+        <v>424</v>
+      </c>
+      <c r="M15" t="s">
+        <v>424</v>
+      </c>
+      <c r="N15" t="s">
+        <v>424</v>
+      </c>
+      <c r="O15" t="s">
+        <v>424</v>
+      </c>
+      <c r="P15" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4">
+        <v>37770</v>
+      </c>
+      <c r="F16" s="32">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="H16" t="s">
+        <v>424</v>
+      </c>
+      <c r="I16" t="s">
+        <v>424</v>
+      </c>
+      <c r="J16" t="s">
+        <v>424</v>
+      </c>
+      <c r="K16">
+        <f>[1]Bailarin!B17</f>
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>424</v>
+      </c>
+      <c r="M16" t="s">
+        <v>424</v>
+      </c>
+      <c r="N16" t="s">
+        <v>424</v>
+      </c>
+      <c r="O16" t="s">
+        <v>424</v>
+      </c>
+      <c r="P16" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4">
+        <v>37880</v>
+      </c>
+      <c r="F17" s="32">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="H17" t="s">
+        <v>424</v>
+      </c>
+      <c r="I17" t="s">
+        <v>424</v>
+      </c>
+      <c r="J17" t="s">
+        <v>424</v>
+      </c>
+      <c r="K17">
+        <f>[1]Bailarin!B18</f>
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>424</v>
+      </c>
+      <c r="M17" t="s">
+        <v>424</v>
+      </c>
+      <c r="N17" t="s">
+        <v>424</v>
+      </c>
+      <c r="O17" t="s">
+        <v>424</v>
+      </c>
+      <c r="P17" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4">
+        <v>37922</v>
+      </c>
+      <c r="F18" s="32">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="H18" t="s">
+        <v>424</v>
+      </c>
+      <c r="I18" t="s">
+        <v>424</v>
+      </c>
+      <c r="J18" t="s">
+        <v>424</v>
+      </c>
+      <c r="K18">
+        <f>[1]Bailarin!B19</f>
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>424</v>
+      </c>
+      <c r="M18" t="s">
+        <v>424</v>
+      </c>
+      <c r="N18" t="s">
+        <v>424</v>
+      </c>
+      <c r="O18" t="s">
+        <v>424</v>
+      </c>
+      <c r="P18" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4">
+        <v>39163</v>
+      </c>
+      <c r="F19" s="32">
+        <f t="shared" si="1"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H19" t="s">
+        <v>424</v>
+      </c>
+      <c r="I19" t="s">
+        <v>424</v>
+      </c>
+      <c r="J19" t="s">
+        <v>424</v>
+      </c>
+      <c r="K19">
+        <f>[1]Bailarin!B20</f>
+        <v>15</v>
+      </c>
+      <c r="L19" t="s">
+        <v>424</v>
+      </c>
+      <c r="M19" t="s">
+        <v>424</v>
+      </c>
+      <c r="N19" t="s">
+        <v>424</v>
+      </c>
+      <c r="O19" t="s">
+        <v>424</v>
+      </c>
+      <c r="P19" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4">
+        <v>37185</v>
+      </c>
+      <c r="F20" s="32">
+        <f t="shared" si="1"/>
+        <v>183.33333333333334</v>
+      </c>
+      <c r="H20" t="s">
+        <v>424</v>
+      </c>
+      <c r="I20" t="s">
+        <v>424</v>
+      </c>
+      <c r="J20" t="s">
+        <v>424</v>
+      </c>
+      <c r="K20">
+        <f>[1]Bailarin!B21</f>
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
+        <v>424</v>
+      </c>
+      <c r="M20" t="s">
+        <v>424</v>
+      </c>
+      <c r="N20" t="s">
+        <v>424</v>
+      </c>
+      <c r="O20" t="s">
+        <v>424</v>
+      </c>
+      <c r="P20" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4">
+        <v>39429</v>
+      </c>
+      <c r="F21" s="32">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="H21" t="s">
+        <v>424</v>
+      </c>
+      <c r="I21" t="s">
+        <v>424</v>
+      </c>
+      <c r="J21" t="s">
+        <v>424</v>
+      </c>
+      <c r="K21">
+        <f>[1]Bailarin!B22</f>
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>424</v>
+      </c>
+      <c r="M21" t="s">
+        <v>424</v>
+      </c>
+      <c r="N21" t="s">
+        <v>424</v>
+      </c>
+      <c r="O21" t="s">
+        <v>424</v>
+      </c>
+      <c r="P21" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4">
+        <v>35448</v>
+      </c>
+      <c r="F22" s="32">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="H22" t="s">
+        <v>424</v>
+      </c>
+      <c r="I22" t="s">
+        <v>424</v>
+      </c>
+      <c r="J22" t="s">
+        <v>424</v>
+      </c>
+      <c r="K22">
+        <f>[1]Bailarin!B23</f>
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>424</v>
+      </c>
+      <c r="M22" t="s">
+        <v>424</v>
+      </c>
+      <c r="N22" t="s">
+        <v>424</v>
+      </c>
+      <c r="O22" t="s">
+        <v>424</v>
+      </c>
+      <c r="P22" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4">
+        <v>36625</v>
+      </c>
+      <c r="F23" s="32">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="H23" t="s">
+        <v>424</v>
+      </c>
+      <c r="I23" t="s">
+        <v>424</v>
+      </c>
+      <c r="J23" t="s">
+        <v>424</v>
+      </c>
+      <c r="K23">
+        <f>[1]Bailarin!B24</f>
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>424</v>
+      </c>
+      <c r="M23" t="s">
+        <v>424</v>
+      </c>
+      <c r="N23" t="s">
+        <v>424</v>
+      </c>
+      <c r="O23" t="s">
+        <v>424</v>
+      </c>
+      <c r="P23" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4">
+        <v>36073</v>
+      </c>
+      <c r="F24" s="32">
+        <f t="shared" si="1"/>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="H24" t="s">
+        <v>424</v>
+      </c>
+      <c r="I24" t="s">
+        <v>424</v>
+      </c>
+      <c r="J24" t="s">
+        <v>424</v>
+      </c>
+      <c r="K24">
+        <f>[1]Bailarin!B25</f>
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>424</v>
+      </c>
+      <c r="M24" t="s">
+        <v>424</v>
+      </c>
+      <c r="N24" t="s">
+        <v>424</v>
+      </c>
+      <c r="O24" t="s">
+        <v>424</v>
+      </c>
+      <c r="P24" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4">
+        <v>35526</v>
+      </c>
+      <c r="F25" s="32">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="H25" t="s">
+        <v>424</v>
+      </c>
+      <c r="I25" t="s">
+        <v>424</v>
+      </c>
+      <c r="J25" t="s">
+        <v>424</v>
+      </c>
+      <c r="K25">
+        <f>[1]Bailarin!B26</f>
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>424</v>
+      </c>
+      <c r="M25" t="s">
+        <v>424</v>
+      </c>
+      <c r="N25" t="s">
+        <v>424</v>
+      </c>
+      <c r="O25" t="s">
+        <v>424</v>
+      </c>
+      <c r="P25" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26" s="4">
+        <v>38156</v>
+      </c>
+      <c r="F26" s="32">
+        <f t="shared" si="1"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="H26" t="s">
+        <v>424</v>
+      </c>
+      <c r="I26" t="s">
+        <v>424</v>
+      </c>
+      <c r="J26" t="s">
+        <v>424</v>
+      </c>
+      <c r="K26">
+        <f>[1]Bailarin!B27</f>
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>424</v>
+      </c>
+      <c r="M26" t="s">
+        <v>424</v>
+      </c>
+      <c r="N26" t="s">
+        <v>424</v>
+      </c>
+      <c r="O26" t="s">
+        <v>424</v>
+      </c>
+      <c r="P26" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4">
+        <v>39300</v>
+      </c>
+      <c r="F27" s="32">
+        <f t="shared" si="1"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H27" t="s">
+        <v>424</v>
+      </c>
+      <c r="I27" t="s">
+        <v>424</v>
+      </c>
+      <c r="J27" t="s">
+        <v>424</v>
+      </c>
+      <c r="K27">
+        <f>[1]Bailarin!B28</f>
+        <v>23</v>
+      </c>
+      <c r="L27" t="s">
+        <v>424</v>
+      </c>
+      <c r="M27" t="s">
+        <v>424</v>
+      </c>
+      <c r="N27" t="s">
+        <v>424</v>
+      </c>
+      <c r="O27" t="s">
+        <v>424</v>
+      </c>
+      <c r="P27" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28" s="4">
+        <v>40060</v>
+      </c>
+      <c r="F28" s="32">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
+        <v>424</v>
+      </c>
+      <c r="I28" t="s">
+        <v>424</v>
+      </c>
+      <c r="J28" t="s">
+        <v>424</v>
+      </c>
+      <c r="K28">
+        <f>[1]Bailarin!B29</f>
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>424</v>
+      </c>
+      <c r="M28" t="s">
+        <v>424</v>
+      </c>
+      <c r="N28" t="s">
+        <v>424</v>
+      </c>
+      <c r="O28" t="s">
+        <v>424</v>
+      </c>
+      <c r="P28" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4">
+        <v>37421</v>
+      </c>
+      <c r="F29" s="32">
+        <f t="shared" si="1"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="H29" t="s">
+        <v>424</v>
+      </c>
+      <c r="I29" t="s">
+        <v>424</v>
+      </c>
+      <c r="J29" t="s">
+        <v>424</v>
+      </c>
+      <c r="K29">
+        <f>[1]Bailarin!B30</f>
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>424</v>
+      </c>
+      <c r="M29" t="s">
+        <v>424</v>
+      </c>
+      <c r="N29" t="s">
+        <v>424</v>
+      </c>
+      <c r="O29" t="s">
+        <v>424</v>
+      </c>
+      <c r="P29" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30" s="4">
+        <v>40763</v>
+      </c>
+      <c r="F30" s="32">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="H30" t="s">
+        <v>424</v>
+      </c>
+      <c r="I30" t="s">
+        <v>424</v>
+      </c>
+      <c r="J30" t="s">
+        <v>424</v>
+      </c>
+      <c r="K30">
+        <f>[1]Bailarin!B31</f>
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>424</v>
+      </c>
+      <c r="M30" t="s">
+        <v>424</v>
+      </c>
+      <c r="N30" t="s">
+        <v>424</v>
+      </c>
+      <c r="O30" t="s">
+        <v>424</v>
+      </c>
+      <c r="P30" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31" s="4">
+        <v>36651</v>
+      </c>
+      <c r="F31" s="32">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="H31" t="s">
+        <v>424</v>
+      </c>
+      <c r="I31" t="s">
+        <v>424</v>
+      </c>
+      <c r="J31" t="s">
+        <v>424</v>
+      </c>
+      <c r="K31">
+        <f>[1]Bailarin!B32</f>
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>424</v>
+      </c>
+      <c r="M31" t="s">
+        <v>424</v>
+      </c>
+      <c r="N31" t="s">
+        <v>424</v>
+      </c>
+      <c r="O31" t="s">
+        <v>424</v>
+      </c>
+      <c r="P31" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32" s="4">
+        <v>38893</v>
+      </c>
+      <c r="F32" s="32">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>424</v>
+      </c>
+      <c r="I32" t="s">
+        <v>424</v>
+      </c>
+      <c r="J32" t="s">
+        <v>424</v>
+      </c>
+      <c r="K32">
+        <f>[1]Bailarin!B33</f>
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>424</v>
+      </c>
+      <c r="M32" t="s">
+        <v>424</v>
+      </c>
+      <c r="N32" t="s">
+        <v>424</v>
+      </c>
+      <c r="O32" t="s">
+        <v>424</v>
+      </c>
+      <c r="P32" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33" s="4">
+        <v>40484</v>
+      </c>
+      <c r="F33" s="32">
+        <f t="shared" si="1"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="H33" t="s">
+        <v>424</v>
+      </c>
+      <c r="I33" t="s">
+        <v>424</v>
+      </c>
+      <c r="J33" t="s">
+        <v>424</v>
+      </c>
+      <c r="K33">
+        <f>[1]Bailarin!B34</f>
+        <v>29</v>
+      </c>
+      <c r="L33" t="s">
+        <v>424</v>
+      </c>
+      <c r="M33" t="s">
+        <v>424</v>
+      </c>
+      <c r="N33" t="s">
+        <v>424</v>
+      </c>
+      <c r="O33" t="s">
+        <v>424</v>
+      </c>
+      <c r="P33" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34" s="4">
+        <v>37354</v>
+      </c>
+      <c r="F34" s="32">
+        <f t="shared" si="1"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="H34" t="s">
+        <v>424</v>
+      </c>
+      <c r="I34" t="s">
+        <v>424</v>
+      </c>
+      <c r="J34" t="s">
+        <v>424</v>
+      </c>
+      <c r="K34">
+        <f>[1]Bailarin!B35</f>
+        <v>30</v>
+      </c>
+      <c r="L34" t="s">
+        <v>424</v>
+      </c>
+      <c r="M34" t="s">
+        <v>424</v>
+      </c>
+      <c r="N34" t="s">
+        <v>424</v>
+      </c>
+      <c r="O34" t="s">
+        <v>424</v>
+      </c>
+      <c r="P34" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35" s="4">
+        <v>38244</v>
+      </c>
+      <c r="F35" s="32">
+        <f t="shared" si="1"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="H35" t="s">
+        <v>424</v>
+      </c>
+      <c r="I35" t="s">
+        <v>424</v>
+      </c>
+      <c r="J35" t="s">
+        <v>424</v>
+      </c>
+      <c r="K35">
+        <f>[1]Bailarin!B36</f>
+        <v>31</v>
+      </c>
+      <c r="L35" t="s">
+        <v>424</v>
+      </c>
+      <c r="M35" t="s">
+        <v>424</v>
+      </c>
+      <c r="N35" t="s">
+        <v>424</v>
+      </c>
+      <c r="O35" t="s">
+        <v>424</v>
+      </c>
+      <c r="P35" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>32</v>
+      </c>
+      <c r="D36" s="4">
+        <v>38148</v>
+      </c>
+      <c r="F36" s="32">
+        <f t="shared" si="1"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="H36" t="s">
+        <v>424</v>
+      </c>
+      <c r="I36" t="s">
+        <v>424</v>
+      </c>
+      <c r="J36" t="s">
+        <v>424</v>
+      </c>
+      <c r="K36">
+        <f>[1]Bailarin!B37</f>
+        <v>32</v>
+      </c>
+      <c r="L36" t="s">
+        <v>424</v>
+      </c>
+      <c r="M36" t="s">
+        <v>424</v>
+      </c>
+      <c r="N36" t="s">
+        <v>424</v>
+      </c>
+      <c r="O36" t="s">
+        <v>424</v>
+      </c>
+      <c r="P36" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>33</v>
+      </c>
+      <c r="D37" s="4">
+        <v>39875</v>
+      </c>
+      <c r="F37" s="32">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H37" t="s">
+        <v>424</v>
+      </c>
+      <c r="I37" t="s">
+        <v>424</v>
+      </c>
+      <c r="J37" t="s">
+        <v>424</v>
+      </c>
+      <c r="K37">
+        <f>[1]Bailarin!B38</f>
+        <v>33</v>
+      </c>
+      <c r="L37" t="s">
+        <v>424</v>
+      </c>
+      <c r="M37" t="s">
+        <v>424</v>
+      </c>
+      <c r="N37" t="s">
+        <v>424</v>
+      </c>
+      <c r="O37" t="s">
+        <v>424</v>
+      </c>
+      <c r="P37" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="D38" s="4"/>
+      <c r="F38" s="32"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="D39" s="4"/>
+      <c r="F39" s="32"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="D40" s="4"/>
+      <c r="F40" s="32"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="D41" s="4"/>
+      <c r="F41" s="32"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="D42" s="4"/>
+      <c r="F42" s="32"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="D43" s="4"/>
+      <c r="F43" s="32"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="D44" s="31"/>
+      <c r="F44" s="32"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="D45" s="31"/>
+      <c r="F45" s="32"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="D46" s="31"/>
+      <c r="F46" s="32"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="D47" s="31"/>
+      <c r="F47" s="32"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="D48" s="31"/>
+      <c r="F48" s="32"/>
+    </row>
+    <row r="49" spans="4:6">
+      <c r="D49" s="31"/>
+      <c r="F49" s="32"/>
+    </row>
+    <row r="50" spans="4:6">
+      <c r="D50" s="31"/>
+      <c r="F50" s="32"/>
+    </row>
+    <row r="51" spans="4:6">
+      <c r="D51" s="31"/>
+      <c r="F51" s="32"/>
+    </row>
+    <row r="52" spans="4:6">
+      <c r="D52" s="31"/>
+      <c r="F52" s="32"/>
+    </row>
+    <row r="53" spans="4:6">
+      <c r="D53" s="31"/>
+      <c r="F53" s="32"/>
+    </row>
+    <row r="54" spans="4:6">
+      <c r="D54" s="31"/>
+      <c r="F54" s="32"/>
+    </row>
+    <row r="55" spans="4:6">
+      <c r="D55" s="31"/>
+      <c r="F55" s="32"/>
+    </row>
+    <row r="56" spans="4:6">
+      <c r="D56" s="31"/>
+      <c r="F56" s="32"/>
+    </row>
+    <row r="57" spans="4:6">
+      <c r="D57" s="31"/>
+      <c r="F57" s="32"/>
+    </row>
+    <row r="58" spans="4:6">
+      <c r="D58" s="31"/>
+      <c r="F58" s="32"/>
+    </row>
+    <row r="59" spans="4:6">
+      <c r="D59" s="31"/>
+      <c r="F59" s="32"/>
+    </row>
+    <row r="60" spans="4:6">
+      <c r="D60" s="31"/>
+      <c r="F60" s="32"/>
+    </row>
+    <row r="61" spans="4:6">
+      <c r="D61" s="31"/>
+      <c r="F61" s="32"/>
+    </row>
+    <row r="62" spans="4:6">
+      <c r="D62" s="31"/>
+      <c r="F62" s="32"/>
+    </row>
+    <row r="63" spans="4:6">
+      <c r="D63" s="31"/>
+      <c r="F63" s="32"/>
+    </row>
+    <row r="64" spans="4:6">
+      <c r="D64" s="31"/>
+      <c r="F64" s="32"/>
+    </row>
+    <row r="65" spans="4:6">
+      <c r="D65" s="31"/>
+      <c r="F65" s="32"/>
+    </row>
+    <row r="66" spans="4:6">
+      <c r="D66" s="31"/>
+      <c r="F66" s="32"/>
+    </row>
+    <row r="67" spans="4:6">
+      <c r="D67" s="31"/>
+      <c r="F67" s="32"/>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="D68" s="31"/>
+      <c r="F68" s="32"/>
+    </row>
+    <row r="69" spans="4:6">
+      <c r="D69" s="31"/>
+      <c r="F69" s="32"/>
+    </row>
+    <row r="70" spans="4:6">
+      <c r="D70" s="31"/>
+      <c r="F70" s="32"/>
+    </row>
+    <row r="71" spans="4:6">
+      <c r="D71" s="31"/>
+      <c r="F71" s="32"/>
+    </row>
+    <row r="72" spans="4:6">
+      <c r="D72" s="31"/>
+      <c r="F72" s="32"/>
+    </row>
+    <row r="73" spans="4:6">
+      <c r="D73" s="31"/>
+      <c r="F73" s="32"/>
+    </row>
+    <row r="74" spans="4:6">
+      <c r="D74" s="31"/>
+      <c r="F74" s="32"/>
+    </row>
+    <row r="75" spans="4:6">
+      <c r="D75" s="31"/>
+      <c r="F75" s="32"/>
+    </row>
+    <row r="76" spans="4:6">
+      <c r="D76" s="31"/>
+      <c r="F76" s="32"/>
+    </row>
+    <row r="77" spans="4:6">
+      <c r="D77" s="31"/>
+      <c r="F77" s="32"/>
+    </row>
+    <row r="78" spans="4:6">
+      <c r="D78" s="31"/>
+      <c r="F78" s="32"/>
+    </row>
+    <row r="79" spans="4:6">
+      <c r="D79" s="31"/>
+      <c r="F79" s="32"/>
+    </row>
+    <row r="80" spans="4:6">
+      <c r="D80" s="31"/>
+      <c r="F80" s="32"/>
+    </row>
+    <row r="81" spans="4:6">
+      <c r="D81" s="31"/>
+      <c r="F81" s="32"/>
+    </row>
+    <row r="82" spans="4:6">
+      <c r="D82" s="31"/>
+      <c r="F82" s="32"/>
+    </row>
+    <row r="83" spans="4:6">
+      <c r="D83" s="31"/>
+      <c r="F83" s="32"/>
+    </row>
+    <row r="84" spans="4:6">
+      <c r="D84" s="31"/>
+      <c r="F84" s="32"/>
+    </row>
+    <row r="85" spans="4:6">
+      <c r="D85" s="31"/>
+      <c r="F85" s="32"/>
+    </row>
+    <row r="86" spans="4:6">
+      <c r="D86" s="31"/>
+      <c r="F86" s="32"/>
+    </row>
+    <row r="87" spans="4:6">
+      <c r="D87" s="31"/>
+      <c r="F87" s="32"/>
+    </row>
+    <row r="88" spans="4:6">
+      <c r="D88" s="31"/>
+      <c r="F88" s="32"/>
+    </row>
+    <row r="89" spans="4:6">
+      <c r="D89" s="31"/>
+      <c r="F89" s="32"/>
+    </row>
+    <row r="90" spans="4:6">
+      <c r="D90" s="31"/>
+      <c r="F90" s="32"/>
+    </row>
+    <row r="91" spans="4:6">
+      <c r="D91" s="31"/>
+      <c r="F91" s="32"/>
+    </row>
+    <row r="92" spans="4:6">
+      <c r="D92" s="31"/>
+      <c r="F92" s="32"/>
+    </row>
+    <row r="93" spans="4:6">
+      <c r="D93" s="31"/>
+      <c r="F93" s="32"/>
+    </row>
+    <row r="94" spans="4:6">
+      <c r="D94" s="31"/>
+      <c r="F94" s="32"/>
+    </row>
+    <row r="95" spans="4:6">
+      <c r="D95" s="31"/>
+      <c r="F95" s="32"/>
+    </row>
+    <row r="96" spans="4:6">
+      <c r="D96" s="31"/>
+      <c r="F96" s="32"/>
+    </row>
+    <row r="97" spans="4:6">
+      <c r="D97" s="31"/>
+      <c r="F97" s="32"/>
+    </row>
+    <row r="98" spans="4:6">
+      <c r="D98" s="31"/>
+      <c r="F98" s="32"/>
+    </row>
+    <row r="99" spans="4:6">
+      <c r="D99" s="31"/>
+      <c r="F99" s="32"/>
+    </row>
+    <row r="100" spans="4:6">
+      <c r="D100" s="31"/>
+      <c r="F100" s="32"/>
+    </row>
+    <row r="101" spans="4:6">
+      <c r="D101" s="31"/>
+      <c r="F101" s="32"/>
+    </row>
+    <row r="102" spans="4:6">
+      <c r="D102" s="31"/>
+      <c r="F102" s="32"/>
+    </row>
+    <row r="103" spans="4:6">
+      <c r="D103" s="31"/>
+      <c r="F103" s="32"/>
+    </row>
+    <row r="104" spans="4:6">
+      <c r="D104" s="31"/>
+      <c r="F104" s="32"/>
+    </row>
+    <row r="105" spans="4:6">
+      <c r="D105" s="31"/>
+      <c r="F105" s="32"/>
+    </row>
+    <row r="106" spans="4:6">
+      <c r="D106" s="31"/>
+      <c r="F106" s="32"/>
+    </row>
+    <row r="107" spans="4:6">
+      <c r="D107" s="31"/>
+      <c r="F107" s="32"/>
+    </row>
+    <row r="108" spans="4:6">
+      <c r="D108" s="31"/>
+      <c r="F108" s="32"/>
+    </row>
+    <row r="109" spans="4:6">
+      <c r="D109" s="31"/>
+      <c r="F109" s="32"/>
+    </row>
+    <row r="110" spans="4:6">
+      <c r="D110" s="31"/>
+      <c r="F110" s="32"/>
+    </row>
+    <row r="111" spans="4:6">
+      <c r="D111" s="4"/>
+      <c r="F111" s="32"/>
+    </row>
+    <row r="112" spans="4:6">
+      <c r="D112" s="31"/>
+      <c r="F112" s="32"/>
+    </row>
+    <row r="113" spans="4:6">
+      <c r="D113" s="31"/>
+      <c r="F113" s="32"/>
+    </row>
+    <row r="114" spans="4:6">
+      <c r="D114" s="31"/>
+      <c r="F114" s="32"/>
+    </row>
+    <row r="115" spans="4:6">
+      <c r="D115" s="31"/>
+      <c r="F115" s="32"/>
+    </row>
+    <row r="116" spans="4:6">
+      <c r="D116" s="31"/>
+      <c r="F116" s="32"/>
+    </row>
+    <row r="117" spans="4:6">
+      <c r="D117" s="31"/>
+      <c r="F117" s="32"/>
+    </row>
+    <row r="118" spans="4:6">
+      <c r="D118" s="31"/>
+      <c r="F118" s="32"/>
+    </row>
+    <row r="119" spans="4:6">
+      <c r="D119" s="31"/>
+      <c r="F119" s="32"/>
+    </row>
+    <row r="120" spans="4:6">
+      <c r="D120" s="31"/>
+      <c r="F120" s="32"/>
+    </row>
+    <row r="121" spans="4:6">
+      <c r="D121" s="31"/>
+      <c r="F121" s="32"/>
+    </row>
+    <row r="122" spans="4:6">
+      <c r="D122" s="31"/>
+      <c r="F122" s="32"/>
+    </row>
+    <row r="123" spans="4:6">
+      <c r="D123" s="31"/>
+      <c r="F123" s="32"/>
+    </row>
+    <row r="124" spans="4:6">
+      <c r="D124" s="4"/>
+      <c r="F124" s="32"/>
+    </row>
+    <row r="125" spans="4:6">
+      <c r="D125" s="4"/>
+      <c r="F125" s="32"/>
+    </row>
+    <row r="126" spans="4:6">
+      <c r="D126" s="4"/>
+      <c r="F126" s="32"/>
+    </row>
+    <row r="127" spans="4:6">
+      <c r="D127" s="4"/>
+      <c r="F127" s="32"/>
+    </row>
+    <row r="128" spans="4:6">
+      <c r="D128" s="4"/>
+      <c r="F128" s="32"/>
+    </row>
+    <row r="129" spans="4:17">
+      <c r="D129" s="4"/>
+      <c r="F129" s="32"/>
+    </row>
+    <row r="130" spans="4:17">
+      <c r="D130" s="4"/>
+      <c r="F130" s="32"/>
+    </row>
+    <row r="131" spans="4:17">
+      <c r="D131" s="4"/>
+      <c r="F131" s="32"/>
+    </row>
+    <row r="132" spans="4:17">
+      <c r="D132" s="4"/>
+      <c r="F132" s="32"/>
+    </row>
+    <row r="133" spans="4:17">
+      <c r="D133" s="4"/>
+      <c r="F133" s="32"/>
+    </row>
+    <row r="134" spans="4:17">
+      <c r="D134" s="4"/>
+      <c r="F134" s="32"/>
+    </row>
+    <row r="135" spans="4:17">
+      <c r="D135" s="4"/>
+      <c r="F135" s="32"/>
+    </row>
+    <row r="136" spans="4:17">
+      <c r="D136" s="4"/>
+      <c r="F136" s="32"/>
+    </row>
+    <row r="137" spans="4:17">
+      <c r="D137" s="4"/>
+      <c r="F137" s="32"/>
+    </row>
+    <row r="138" spans="4:17">
+      <c r="D138" s="4"/>
+      <c r="F138" s="32"/>
+    </row>
+    <row r="139" spans="4:17">
+      <c r="D139" s="4"/>
+      <c r="F139" s="32"/>
+    </row>
+    <row r="140" spans="4:17">
+      <c r="D140" s="4"/>
+      <c r="F140" s="32"/>
+    </row>
+    <row r="141" spans="4:17">
+      <c r="D141" s="4"/>
+      <c r="F141" s="32"/>
+    </row>
+    <row r="142" spans="4:17">
+      <c r="D142" s="4"/>
+      <c r="F142" s="32"/>
+      <c r="O142">
+        <v>1</v>
+      </c>
+      <c r="P142" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="143" spans="4:17">
+      <c r="D143" s="4"/>
+      <c r="F143" s="32"/>
+      <c r="O143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="4:17">
+      <c r="D144" s="4"/>
+      <c r="F144" s="32"/>
+      <c r="O144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="4:15">
+      <c r="D145" s="4"/>
+      <c r="F145" s="32"/>
+      <c r="O145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="4:15">
+      <c r="D146" s="4"/>
+      <c r="F146" s="32"/>
+      <c r="O146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="4:15">
+      <c r="D147" s="4"/>
+      <c r="F147" s="32"/>
+      <c r="O147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="4:15">
+      <c r="D148" s="4"/>
+      <c r="F148" s="32"/>
+      <c r="O148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="4:15">
+      <c r="D149" s="4"/>
+      <c r="F149" s="32"/>
+      <c r="O149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="4:15">
+      <c r="D150" s="4"/>
+      <c r="F150" s="32"/>
+      <c r="O150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="4:15">
+      <c r="D151" s="4"/>
+      <c r="F151" s="32"/>
+      <c r="O151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="4:15">
+      <c r="D152" s="4"/>
+      <c r="F152" s="32"/>
+      <c r="O152">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="4:15">
+      <c r="D153" s="4"/>
+      <c r="F153" s="32"/>
+      <c r="O153">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="4:15">
+      <c r="D154" s="4"/>
+      <c r="F154" s="32"/>
+    </row>
+    <row r="155" spans="4:15">
+      <c r="D155" s="4"/>
+      <c r="F155" s="32"/>
+    </row>
+    <row r="156" spans="4:15">
+      <c r="D156" s="4"/>
+      <c r="F156" s="32"/>
+    </row>
+    <row r="157" spans="4:15">
+      <c r="D157" s="4"/>
+      <c r="F157" s="32"/>
+    </row>
+    <row r="158" spans="4:15">
+      <c r="D158" s="4"/>
+      <c r="F158" s="32"/>
+    </row>
+    <row r="159" spans="4:15">
+      <c r="D159" s="4"/>
+      <c r="F159" s="32"/>
+    </row>
+    <row r="160" spans="4:15">
+      <c r="D160" s="4"/>
+      <c r="F160" s="32"/>
+    </row>
+    <row r="161" spans="4:9">
+      <c r="D161" s="4"/>
+      <c r="F161" s="32"/>
+    </row>
+    <row r="162" spans="4:9">
+      <c r="D162" s="4"/>
+      <c r="F162" s="32"/>
+    </row>
+    <row r="163" spans="4:9">
+      <c r="D163" s="31"/>
+      <c r="F163" s="32"/>
+    </row>
+    <row r="171" spans="4:9">
+      <c r="I171" s="4"/>
+    </row>
+    <row r="172" spans="4:9">
+      <c r="I172" s="4"/>
+    </row>
+    <row r="173" spans="4:9">
+      <c r="I173" s="4"/>
+    </row>
+    <row r="174" spans="4:9">
+      <c r="I174" s="4"/>
+    </row>
+    <row r="175" spans="4:9">
+      <c r="I175" s="4"/>
+    </row>
+    <row r="176" spans="4:9">
+      <c r="I176" s="4"/>
+    </row>
+    <row r="177" spans="9:9">
+      <c r="I177" s="4"/>
+    </row>
+    <row r="178" spans="9:9">
+      <c r="I178" s="4"/>
+    </row>
+    <row r="179" spans="9:9">
+      <c r="I179" s="4"/>
+    </row>
+    <row r="180" spans="9:9">
+      <c r="I180" s="4"/>
+    </row>
+    <row r="181" spans="9:9">
+      <c r="I181" s="4"/>
+    </row>
+    <row r="182" spans="9:9">
+      <c r="I182" s="4"/>
+    </row>
+    <row r="183" spans="9:9">
+      <c r="I183" s="4"/>
+    </row>
+    <row r="184" spans="9:9">
+      <c r="I184" s="4"/>
+    </row>
+    <row r="185" spans="9:9">
+      <c r="I185" s="4"/>
+    </row>
+    <row r="186" spans="9:9">
+      <c r="I186" s="4"/>
+    </row>
+    <row r="187" spans="9:9">
+      <c r="I187" s="4"/>
+    </row>
+    <row r="188" spans="9:9">
+      <c r="I188" s="4"/>
+    </row>
+    <row r="189" spans="9:9">
+      <c r="I189" s="4"/>
+    </row>
+    <row r="190" spans="9:9">
+      <c r="I190" s="4"/>
+    </row>
+    <row r="191" spans="9:9">
+      <c r="I191" s="4"/>
+    </row>
+    <row r="192" spans="9:9">
+      <c r="I192" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:S41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -4097,40 +8252,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="18.75">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="7"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="1" t="s">
@@ -4181,42 +8336,1863 @@
       <c r="Q5" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="R5" s="1" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="C6" s="11"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="Q6" s="10"/>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I6" t="s">
+        <v>319</v>
+      </c>
+      <c r="J6" t="s">
+        <v>319</v>
+      </c>
+      <c r="K6" t="s">
+        <v>319</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="26">
+        <v>25713</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="O6" t="s">
+        <v>320</v>
+      </c>
+      <c r="P6" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>85</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H7" t="s">
+        <v>319</v>
+      </c>
+      <c r="I7" t="s">
+        <v>319</v>
+      </c>
+      <c r="J7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="4">
+        <v>28504</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="O7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q7">
+        <v>59</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="8" spans="2:19">
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I8" t="s">
+        <v>319</v>
+      </c>
+      <c r="J8" t="s">
+        <v>319</v>
+      </c>
+      <c r="K8" t="s">
+        <v>319</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="4">
+        <v>22968</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="O8" t="s">
+        <v>320</v>
+      </c>
+      <c r="P8" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="9" spans="2:19" s="13" customFormat="1">
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" t="s">
+        <v>319</v>
+      </c>
+      <c r="H9" t="s">
+        <v>319</v>
+      </c>
+      <c r="I9" t="s">
+        <v>319</v>
+      </c>
+      <c r="J9" t="s">
+        <v>319</v>
+      </c>
+      <c r="K9" t="s">
+        <v>319</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="14">
+        <v>27905</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="O9" t="s">
+        <v>320</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>59</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="M10" s="16"/>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" t="s">
+        <v>319</v>
+      </c>
+      <c r="H10" t="s">
+        <v>319</v>
+      </c>
+      <c r="I10" t="s">
+        <v>319</v>
+      </c>
+      <c r="J10" t="s">
+        <v>319</v>
+      </c>
+      <c r="K10" t="s">
+        <v>319</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="16">
+        <v>29752</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="O10" t="s">
+        <v>320</v>
+      </c>
+      <c r="P10" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q10">
+        <v>59</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="11" spans="2:19">
-      <c r="M11" s="4"/>
-      <c r="S11" s="15"/>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" t="s">
+        <v>319</v>
+      </c>
+      <c r="G11" t="s">
+        <v>319</v>
+      </c>
+      <c r="H11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I11" t="s">
+        <v>319</v>
+      </c>
+      <c r="J11" t="s">
+        <v>319</v>
+      </c>
+      <c r="K11" t="s">
+        <v>319</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="4">
+        <v>29112</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="O11" t="s">
+        <v>320</v>
+      </c>
+      <c r="P11" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q11">
+        <v>196</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="12" spans="2:19">
-      <c r="M12" s="4"/>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" t="s">
+        <v>338</v>
+      </c>
+      <c r="F12" t="s">
+        <v>339</v>
+      </c>
+      <c r="G12" t="s">
+        <v>319</v>
+      </c>
+      <c r="H12" t="s">
+        <v>319</v>
+      </c>
+      <c r="I12" t="s">
+        <v>319</v>
+      </c>
+      <c r="J12" t="s">
+        <v>319</v>
+      </c>
+      <c r="K12" t="s">
+        <v>319</v>
+      </c>
+      <c r="L12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="4">
+        <v>30164</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="O12" t="s">
+        <v>320</v>
+      </c>
+      <c r="P12" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q12">
+        <v>197</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="13" spans="2:19">
-      <c r="M13" s="4"/>
-      <c r="S13" s="15"/>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E13" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13" t="s">
+        <v>319</v>
+      </c>
+      <c r="H13" t="s">
+        <v>319</v>
+      </c>
+      <c r="I13" t="s">
+        <v>319</v>
+      </c>
+      <c r="J13" t="s">
+        <v>319</v>
+      </c>
+      <c r="K13" t="s">
+        <v>319</v>
+      </c>
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="4">
+        <v>28462</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="O13" t="s">
+        <v>320</v>
+      </c>
+      <c r="P13" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q13">
+        <v>130</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="14" spans="2:19">
-      <c r="M14" s="4"/>
-      <c r="S14" s="15"/>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E14" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G14" t="s">
+        <v>319</v>
+      </c>
+      <c r="H14" t="s">
+        <v>319</v>
+      </c>
+      <c r="I14" t="s">
+        <v>319</v>
+      </c>
+      <c r="J14" t="s">
+        <v>319</v>
+      </c>
+      <c r="K14" t="s">
+        <v>319</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="4">
+        <v>29493</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="O14" t="s">
+        <v>320</v>
+      </c>
+      <c r="P14" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q14">
+        <v>154</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" t="s">
+        <v>319</v>
+      </c>
+      <c r="E15" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" t="s">
+        <v>319</v>
+      </c>
+      <c r="G15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I15" t="s">
+        <v>319</v>
+      </c>
+      <c r="J15" t="s">
+        <v>319</v>
+      </c>
+      <c r="K15" t="s">
+        <v>319</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="4">
+        <v>25948</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O15" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q15">
+        <v>138</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H16" t="s">
+        <v>319</v>
+      </c>
+      <c r="I16" t="s">
+        <v>319</v>
+      </c>
+      <c r="J16" t="s">
+        <v>319</v>
+      </c>
+      <c r="K16" t="s">
+        <v>319</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="4">
+        <v>28586</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O16" t="s">
+        <v>320</v>
+      </c>
+      <c r="P16" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q16">
+        <v>13</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" t="s">
+        <v>354</v>
+      </c>
+      <c r="F17" t="s">
+        <v>319</v>
+      </c>
+      <c r="G17" t="s">
+        <v>319</v>
+      </c>
+      <c r="H17" t="s">
+        <v>319</v>
+      </c>
+      <c r="I17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J17" t="s">
+        <v>319</v>
+      </c>
+      <c r="K17" t="s">
+        <v>319</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="4">
+        <v>25846</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O17" t="s">
+        <v>320</v>
+      </c>
+      <c r="P17" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q17">
+        <v>245</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18" t="s">
+        <v>357</v>
+      </c>
+      <c r="F18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G18" t="s">
+        <v>319</v>
+      </c>
+      <c r="H18" t="s">
+        <v>319</v>
+      </c>
+      <c r="I18" t="s">
+        <v>319</v>
+      </c>
+      <c r="J18" t="s">
+        <v>319</v>
+      </c>
+      <c r="K18" t="s">
+        <v>319</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="4">
+        <v>26609</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O18" t="s">
+        <v>320</v>
+      </c>
+      <c r="P18" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q18">
+        <v>65</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>359</v>
+      </c>
+      <c r="D19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E19" t="s">
+        <v>360</v>
+      </c>
+      <c r="F19" t="s">
+        <v>319</v>
+      </c>
+      <c r="G19" t="s">
+        <v>319</v>
+      </c>
+      <c r="H19" t="s">
+        <v>319</v>
+      </c>
+      <c r="I19" t="s">
+        <v>319</v>
+      </c>
+      <c r="J19" t="s">
+        <v>319</v>
+      </c>
+      <c r="K19" t="s">
+        <v>319</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="4">
+        <v>29452</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O19" t="s">
+        <v>320</v>
+      </c>
+      <c r="P19" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q19">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>362</v>
+      </c>
+      <c r="D20" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20" t="s">
+        <v>363</v>
+      </c>
+      <c r="F20" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" t="s">
+        <v>319</v>
+      </c>
+      <c r="H20" t="s">
+        <v>319</v>
+      </c>
+      <c r="I20" t="s">
+        <v>319</v>
+      </c>
+      <c r="J20" t="s">
+        <v>319</v>
+      </c>
+      <c r="K20" t="s">
+        <v>319</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="4">
+        <v>30279</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O20" t="s">
+        <v>320</v>
+      </c>
+      <c r="P20" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q20">
+        <v>196</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" t="s">
+        <v>366</v>
+      </c>
+      <c r="F21" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" t="s">
+        <v>319</v>
+      </c>
+      <c r="H21" t="s">
+        <v>319</v>
+      </c>
+      <c r="I21" t="s">
+        <v>319</v>
+      </c>
+      <c r="J21" t="s">
+        <v>319</v>
+      </c>
+      <c r="K21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="4">
+        <v>27422</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O21" t="s">
+        <v>320</v>
+      </c>
+      <c r="P21" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q21">
+        <v>196</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" t="s">
+        <v>368</v>
+      </c>
+      <c r="F22" t="s">
+        <v>319</v>
+      </c>
+      <c r="G22" t="s">
+        <v>319</v>
+      </c>
+      <c r="H22" t="s">
+        <v>319</v>
+      </c>
+      <c r="I22" t="s">
+        <v>319</v>
+      </c>
+      <c r="J22" t="s">
+        <v>319</v>
+      </c>
+      <c r="K22" t="s">
+        <v>319</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="4">
+        <v>28775</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O22" t="s">
+        <v>320</v>
+      </c>
+      <c r="P22" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q22">
+        <v>193</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>370</v>
+      </c>
+      <c r="D23" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" t="s">
+        <v>371</v>
+      </c>
+      <c r="F23" t="s">
+        <v>319</v>
+      </c>
+      <c r="G23" t="s">
+        <v>319</v>
+      </c>
+      <c r="H23" t="s">
+        <v>319</v>
+      </c>
+      <c r="I23" t="s">
+        <v>319</v>
+      </c>
+      <c r="J23" t="s">
+        <v>319</v>
+      </c>
+      <c r="K23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L23" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" s="4">
+        <v>24842</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O23" t="s">
+        <v>320</v>
+      </c>
+      <c r="P23" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q23">
+        <v>198</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" t="s">
+        <v>319</v>
+      </c>
+      <c r="E24" t="s">
+        <v>375</v>
+      </c>
+      <c r="F24" t="s">
+        <v>319</v>
+      </c>
+      <c r="G24" t="s">
+        <v>319</v>
+      </c>
+      <c r="H24" t="s">
+        <v>319</v>
+      </c>
+      <c r="I24" t="s">
+        <v>319</v>
+      </c>
+      <c r="J24" t="s">
+        <v>319</v>
+      </c>
+      <c r="K24" t="s">
+        <v>319</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="4">
+        <v>29075</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O24" t="s">
+        <v>320</v>
+      </c>
+      <c r="P24" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q24">
+        <v>242</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" t="s">
+        <v>319</v>
+      </c>
+      <c r="E25" t="s">
+        <v>377</v>
+      </c>
+      <c r="F25" t="s">
+        <v>319</v>
+      </c>
+      <c r="G25" t="s">
+        <v>319</v>
+      </c>
+      <c r="H25" t="s">
+        <v>319</v>
+      </c>
+      <c r="I25" t="s">
+        <v>319</v>
+      </c>
+      <c r="J25" t="s">
+        <v>319</v>
+      </c>
+      <c r="K25" t="s">
+        <v>319</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="4">
+        <v>27005</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O25" t="s">
+        <v>320</v>
+      </c>
+      <c r="P25" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q25">
+        <v>86</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D26" t="s">
+        <v>319</v>
+      </c>
+      <c r="E26" t="s">
+        <v>379</v>
+      </c>
+      <c r="F26" t="s">
+        <v>319</v>
+      </c>
+      <c r="G26" t="s">
+        <v>319</v>
+      </c>
+      <c r="H26" t="s">
+        <v>319</v>
+      </c>
+      <c r="I26" t="s">
+        <v>319</v>
+      </c>
+      <c r="J26" t="s">
+        <v>319</v>
+      </c>
+      <c r="K26" t="s">
+        <v>319</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="4">
+        <v>29878</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O26" t="s">
+        <v>320</v>
+      </c>
+      <c r="P26" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q26">
+        <v>212</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>382</v>
+      </c>
+      <c r="D27" t="s">
+        <v>319</v>
+      </c>
+      <c r="E27" t="s">
+        <v>383</v>
+      </c>
+      <c r="F27" t="s">
+        <v>319</v>
+      </c>
+      <c r="G27" t="s">
+        <v>319</v>
+      </c>
+      <c r="H27" t="s">
+        <v>319</v>
+      </c>
+      <c r="I27" t="s">
+        <v>319</v>
+      </c>
+      <c r="J27" t="s">
+        <v>319</v>
+      </c>
+      <c r="K27" t="s">
+        <v>319</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="4">
+        <v>31276</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O27" t="s">
+        <v>320</v>
+      </c>
+      <c r="P27" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q27">
+        <v>223</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="B28">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D28" t="s">
+        <v>319</v>
+      </c>
+      <c r="E28" t="s">
+        <v>386</v>
+      </c>
+      <c r="F28" t="s">
+        <v>387</v>
+      </c>
+      <c r="G28" t="s">
+        <v>319</v>
+      </c>
+      <c r="H28" t="s">
+        <v>319</v>
+      </c>
+      <c r="I28" t="s">
+        <v>319</v>
+      </c>
+      <c r="J28" t="s">
+        <v>319</v>
+      </c>
+      <c r="K28" t="s">
+        <v>319</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="4">
+        <v>31855</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O28" t="s">
+        <v>320</v>
+      </c>
+      <c r="P28" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q28">
+        <v>226</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19">
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>389</v>
+      </c>
+      <c r="D29" t="s">
+        <v>319</v>
+      </c>
+      <c r="E29" t="s">
+        <v>390</v>
+      </c>
+      <c r="F29" t="s">
+        <v>319</v>
+      </c>
+      <c r="G29" t="s">
+        <v>319</v>
+      </c>
+      <c r="H29" t="s">
+        <v>319</v>
+      </c>
+      <c r="I29" t="s">
+        <v>319</v>
+      </c>
+      <c r="J29" t="s">
+        <v>319</v>
+      </c>
+      <c r="K29" t="s">
+        <v>319</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="4">
+        <v>30819</v>
+      </c>
+      <c r="N29" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O29" t="s">
+        <v>320</v>
+      </c>
+      <c r="P29" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q29">
+        <v>222</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19">
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>392</v>
+      </c>
+      <c r="D30" t="s">
+        <v>319</v>
+      </c>
+      <c r="E30" t="s">
+        <v>393</v>
+      </c>
+      <c r="F30" t="s">
+        <v>319</v>
+      </c>
+      <c r="G30" t="s">
+        <v>319</v>
+      </c>
+      <c r="H30" t="s">
+        <v>319</v>
+      </c>
+      <c r="I30" t="s">
+        <v>319</v>
+      </c>
+      <c r="J30" t="s">
+        <v>319</v>
+      </c>
+      <c r="K30" t="s">
+        <v>319</v>
+      </c>
+      <c r="L30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="4">
+        <v>30243</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O30" t="s">
+        <v>320</v>
+      </c>
+      <c r="P30" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q30">
+        <v>12</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>394</v>
+      </c>
+      <c r="D31" t="s">
+        <v>319</v>
+      </c>
+      <c r="E31" t="s">
+        <v>395</v>
+      </c>
+      <c r="F31" t="s">
+        <v>319</v>
+      </c>
+      <c r="G31" t="s">
+        <v>319</v>
+      </c>
+      <c r="H31" t="s">
+        <v>319</v>
+      </c>
+      <c r="I31" t="s">
+        <v>319</v>
+      </c>
+      <c r="J31" t="s">
+        <v>319</v>
+      </c>
+      <c r="K31" t="s">
+        <v>319</v>
+      </c>
+      <c r="L31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="4">
+        <v>28724</v>
+      </c>
+      <c r="N31" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O31" t="s">
+        <v>320</v>
+      </c>
+      <c r="P31" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q31">
+        <v>74</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>397</v>
+      </c>
+      <c r="D32" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" t="s">
+        <v>398</v>
+      </c>
+      <c r="F32" t="s">
+        <v>319</v>
+      </c>
+      <c r="G32" t="s">
+        <v>319</v>
+      </c>
+      <c r="H32" t="s">
+        <v>319</v>
+      </c>
+      <c r="I32" t="s">
+        <v>319</v>
+      </c>
+      <c r="J32" t="s">
+        <v>319</v>
+      </c>
+      <c r="K32" t="s">
+        <v>319</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="4">
+        <v>29935</v>
+      </c>
+      <c r="N32" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O32" t="s">
+        <v>320</v>
+      </c>
+      <c r="P32" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q32">
+        <v>181</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>400</v>
+      </c>
+      <c r="D33" t="s">
+        <v>401</v>
+      </c>
+      <c r="E33" t="s">
+        <v>402</v>
+      </c>
+      <c r="F33" t="s">
+        <v>319</v>
+      </c>
+      <c r="G33" t="s">
+        <v>319</v>
+      </c>
+      <c r="H33" t="s">
+        <v>319</v>
+      </c>
+      <c r="I33" t="s">
+        <v>319</v>
+      </c>
+      <c r="J33" t="s">
+        <v>319</v>
+      </c>
+      <c r="K33" t="s">
+        <v>319</v>
+      </c>
+      <c r="L33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="4">
+        <v>26589</v>
+      </c>
+      <c r="N33" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O33" t="s">
+        <v>320</v>
+      </c>
+      <c r="P33" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>404</v>
+      </c>
+      <c r="D34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E34" t="s">
+        <v>405</v>
+      </c>
+      <c r="F34" t="s">
+        <v>319</v>
+      </c>
+      <c r="G34" t="s">
+        <v>319</v>
+      </c>
+      <c r="H34" t="s">
+        <v>319</v>
+      </c>
+      <c r="I34" t="s">
+        <v>319</v>
+      </c>
+      <c r="J34" t="s">
+        <v>319</v>
+      </c>
+      <c r="K34" t="s">
+        <v>319</v>
+      </c>
+      <c r="L34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="4">
+        <v>32303</v>
+      </c>
+      <c r="N34" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O34" t="s">
+        <v>320</v>
+      </c>
+      <c r="P34" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19">
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D35" t="s">
+        <v>319</v>
+      </c>
+      <c r="E35" t="s">
+        <v>408</v>
+      </c>
+      <c r="F35" t="s">
+        <v>319</v>
+      </c>
+      <c r="G35" t="s">
+        <v>319</v>
+      </c>
+      <c r="H35" t="s">
+        <v>319</v>
+      </c>
+      <c r="I35" t="s">
+        <v>319</v>
+      </c>
+      <c r="J35" t="s">
+        <v>319</v>
+      </c>
+      <c r="K35" t="s">
+        <v>319</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="4">
+        <v>30348</v>
+      </c>
+      <c r="N35" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O35" t="s">
+        <v>320</v>
+      </c>
+      <c r="P35" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q35">
+        <v>196</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="B36">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>409</v>
+      </c>
+      <c r="D36" t="s">
+        <v>319</v>
+      </c>
+      <c r="E36" t="s">
+        <v>410</v>
+      </c>
+      <c r="F36" t="s">
+        <v>319</v>
+      </c>
+      <c r="G36" t="s">
+        <v>319</v>
+      </c>
+      <c r="H36" t="s">
+        <v>319</v>
+      </c>
+      <c r="I36" t="s">
+        <v>319</v>
+      </c>
+      <c r="J36" t="s">
+        <v>319</v>
+      </c>
+      <c r="K36" t="s">
+        <v>319</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="4">
+        <v>28495</v>
+      </c>
+      <c r="N36" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O36" t="s">
+        <v>320</v>
+      </c>
+      <c r="P36" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q36">
+        <v>196</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="B37">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" t="s">
+        <v>319</v>
+      </c>
+      <c r="E37" t="s">
+        <v>412</v>
+      </c>
+      <c r="F37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>319</v>
+      </c>
+      <c r="H37" t="s">
+        <v>319</v>
+      </c>
+      <c r="I37" t="s">
+        <v>319</v>
+      </c>
+      <c r="J37" t="s">
+        <v>319</v>
+      </c>
+      <c r="K37" t="s">
+        <v>319</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="4">
+        <v>28801</v>
+      </c>
+      <c r="N37" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O37" t="s">
+        <v>320</v>
+      </c>
+      <c r="P37" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q37">
+        <v>222</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="B38">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>415</v>
+      </c>
+      <c r="D38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E38" t="s">
+        <v>416</v>
+      </c>
+      <c r="F38" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" t="s">
+        <v>319</v>
+      </c>
+      <c r="H38" t="s">
+        <v>319</v>
+      </c>
+      <c r="I38" t="s">
+        <v>319</v>
+      </c>
+      <c r="J38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" t="s">
+        <v>319</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="4">
+        <v>27743</v>
+      </c>
+      <c r="N38" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O38" t="s">
+        <v>320</v>
+      </c>
+      <c r="P38" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q38">
+        <v>222</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="N39" s="30"/>
+    </row>
+    <row r="40" spans="2:19">
+      <c r="N40" s="30"/>
+    </row>
+    <row r="41" spans="2:19">
+      <c r="N41" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4225,6 +10201,7 @@
     <mergeCell ref="G4:K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4233,51 +10210,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="3" spans="2:17" ht="18.75">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="7"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="1" t="s">
@@ -4334,10 +10311,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L6" t="s">
         <v>58</v>
@@ -4346,7 +10323,10 @@
         <v>12066</v>
       </c>
       <c r="O6" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="P6" t="s">
+        <v>302</v>
       </c>
       <c r="Q6">
         <v>85</v>
@@ -4357,10 +10337,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L7" t="s">
         <v>27</v>
@@ -4369,7 +10349,10 @@
         <v>22733</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+      <c r="P7" t="s">
+        <v>303</v>
       </c>
       <c r="Q7">
         <v>130</v>
@@ -4380,10 +10363,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L8" t="s">
         <v>27</v>
@@ -4391,8 +10374,11 @@
       <c r="M8" s="4">
         <v>24909</v>
       </c>
+      <c r="P8" t="s">
+        <v>304</v>
+      </c>
       <c r="Q8">
-        <v>3</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:17">
@@ -4400,10 +10386,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L9" t="s">
         <v>27</v>
@@ -4412,7 +10398,10 @@
         <v>21874</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
+      </c>
+      <c r="P9" t="s">
+        <v>305</v>
       </c>
       <c r="Q9">
         <v>85</v>
@@ -4423,10 +10412,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
@@ -4435,10 +10424,10 @@
         <v>23655</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="2:17">
@@ -4446,13 +10435,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
@@ -4461,7 +10450,10 @@
         <v>10973</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>263</v>
+        <v>260</v>
+      </c>
+      <c r="P11" t="s">
+        <v>306</v>
       </c>
       <c r="Q11">
         <v>85</v>
@@ -4472,13 +10464,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L12" t="s">
         <v>27</v>
@@ -4487,7 +10479,10 @@
         <v>18463</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="P12" t="s">
+        <v>307</v>
       </c>
       <c r="Q12">
         <v>77</v>
@@ -4498,10 +10493,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L13" t="s">
         <v>27</v>
@@ -4509,11 +10504,11 @@
       <c r="M13" s="4">
         <v>13789</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13" s="25" t="s">
-        <v>270</v>
+        <v>267</v>
+      </c>
+      <c r="P13" t="s">
+        <v>308</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4524,13 +10519,13 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
@@ -4539,7 +10534,10 @@
         <v>15650</v>
       </c>
       <c r="O14" s="25" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="P14" t="s">
+        <v>309</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4550,10 +10548,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L15" t="s">
         <v>27</v>
@@ -4562,7 +10560,10 @@
         <v>18113</v>
       </c>
       <c r="O15" s="25" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="P15" t="s">
+        <v>310</v>
       </c>
       <c r="Q15">
         <v>9</v>
